--- a/final outputs for writing/Model results.xlsx
+++ b/final outputs for writing/Model results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="94">
   <si>
     <t>Females</t>
   </si>
@@ -145,6 +145,9 @@
     <t>BMI</t>
   </si>
   <si>
+    <t>&gt;0.9</t>
+  </si>
+  <si>
     <t>food_ran_out</t>
   </si>
   <si>
@@ -166,19 +169,7 @@
     <t>Covered</t>
   </si>
   <si>
-    <t>&gt;0.9</t>
-  </si>
-  <si>
     <t>home</t>
-  </si>
-  <si>
-    <t>Owned or being bought</t>
-  </si>
-  <si>
-    <t>Rented</t>
-  </si>
-  <si>
-    <t>Other Arrangement</t>
   </si>
   <si>
     <t>poverty_level_category</t>
@@ -196,16 +187,7 @@
     <t>emotional_support</t>
   </si>
   <si>
-    <t>SP doesn't need help</t>
-  </si>
-  <si>
     <t>health_care_access</t>
-  </si>
-  <si>
-    <t>There is no place</t>
-  </si>
-  <si>
-    <t>There is more than one place</t>
   </si>
   <si>
     <t>depression</t>
@@ -274,9 +256,6 @@
     <t>increased likelihood when renting when looking only at SDOH, but not significant when considering other variables.</t>
   </si>
   <si>
-    <t xml:space="preserve">increased likelihood when renting home. </t>
-  </si>
-  <si>
     <t>Increased likelihood as depression score increases.</t>
   </si>
   <si>
@@ -289,7 +268,7 @@
     <t>p-value = 0.7 and 0.2, so this is not significant.</t>
   </si>
   <si>
-    <t>Model</t>
+    <t>Names</t>
   </si>
   <si>
     <t>Nagelkerke</t>
@@ -416,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -483,6 +462,19 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -945,7 +937,7 @@
         <v>0.026</v>
       </c>
       <c r="H7" s="7">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>11</v>
@@ -957,10 +949,10 @@
         <v>11</v>
       </c>
       <c r="L7" s="7">
-        <v>3.4</v>
+        <v>3.29</v>
       </c>
       <c r="M7" s="8">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -999,7 +991,7 @@
         <v>0.004</v>
       </c>
       <c r="H8" s="7">
-        <v>4.14</v>
+        <v>4.11</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>11</v>
@@ -1011,10 +1003,10 @@
         <v>11</v>
       </c>
       <c r="L8" s="7">
-        <v>3.57</v>
+        <v>3.47</v>
       </c>
       <c r="M8" s="8">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1053,7 +1045,7 @@
         <v>0.004</v>
       </c>
       <c r="H9" s="7">
-        <v>5.45</v>
+        <v>5.27</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>11</v>
@@ -1065,10 +1057,10 @@
         <v>11</v>
       </c>
       <c r="L9" s="7">
-        <v>4.13</v>
+        <v>3.98</v>
       </c>
       <c r="M9" s="8">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1107,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>5.31</v>
+        <v>5.11</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>11</v>
@@ -1119,10 +1111,10 @@
         <v>11</v>
       </c>
       <c r="L10" s="7">
-        <v>4.42</v>
+        <v>4.29</v>
       </c>
       <c r="M10" s="8">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1195,10 +1187,10 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="7">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="M13" s="8">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="14">
@@ -1220,10 +1212,10 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="7">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="M14" s="7">
-        <v>0.061</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="15">
@@ -1283,7 +1275,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="7">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="M17" s="7">
         <v>0.8</v>
@@ -1308,7 +1300,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="7">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M18" s="7">
         <v>0.4</v>
@@ -1333,7 +1325,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="7">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="M19" s="7">
         <v>0.3</v>
@@ -1396,10 +1388,10 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="7">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="M22" s="8">
-        <v>0.024</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="23">
@@ -1421,10 +1413,10 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="7">
-        <v>3.64</v>
+        <v>3.56</v>
       </c>
       <c r="M23" s="8">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="24">
@@ -1484,7 +1476,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="7">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>11</v>
@@ -1610,7 +1602,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="7">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>11</v>
@@ -1635,10 +1627,10 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="7">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="M33" s="7">
-        <v>0.11</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="34">
@@ -1701,7 +1693,7 @@
         <v>1.6</v>
       </c>
       <c r="M36" s="8">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="37">
@@ -1726,7 +1718,7 @@
         <v>1.9</v>
       </c>
       <c r="M37" s="8">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="38">
@@ -1750,13 +1742,13 @@
       <c r="L38" s="7">
         <v>1.0</v>
       </c>
-      <c r="M38" s="7">
-        <v>0.9</v>
+      <c r="M38" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1773,7 +1765,7 @@
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1794,7 +1786,7 @@
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1803,23 +1795,23 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="7">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="I41" s="8">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="7">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="M41" s="8">
-        <v>0.007</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1828,7 +1820,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="7">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="I42" s="7">
         <v>0.2</v>
@@ -1836,15 +1828,15 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="7">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M42" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1861,7 +1853,7 @@
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1882,7 +1874,7 @@
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1891,7 +1883,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="7">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I45" s="7">
         <v>0.8</v>
@@ -1899,10 +1891,10 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="7">
-        <v>1.04</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>50</v>
+        <v>1.06</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0.9</v>
       </c>
     </row>
     <row r="46">
@@ -1924,7 +1916,7 @@
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1945,7 +1937,7 @@
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1954,23 +1946,23 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="7">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I48" s="8">
-        <v>0.026</v>
+        <v>0.017</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="7">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M48" s="7">
-        <v>0.12</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
-        <v>54</v>
+      <c r="A49" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1978,24 +1970,16 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="7">
-        <v>2.34</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0.11</v>
-      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="7">
-        <v>3.09</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0.086</v>
-      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>55</v>
+      <c r="A50" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2003,16 +1987,20 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
+      <c r="L50" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="M50" s="10"/>
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2020,20 +2008,24 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="10"/>
+      <c r="H51" s="7">
+        <v>1.13</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.6</v>
+      </c>
       <c r="J51" s="12"/>
       <c r="K51" s="10"/>
-      <c r="L51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="10"/>
+      <c r="L51" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2042,23 +2034,23 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="7">
-        <v>1.15</v>
+        <v>0.91</v>
       </c>
       <c r="I52" s="7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>50</v>
+        <v>0.83</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
-        <v>58</v>
+      <c r="A53" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2066,24 +2058,16 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0.7</v>
-      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
-      <c r="L53" s="7">
-        <v>0.83</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>59</v>
+      <c r="A54" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2091,11 +2075,15 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="H54" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
+      <c r="L54" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="M54" s="10"/>
     </row>
     <row r="55">
@@ -2108,20 +2096,24 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="10"/>
+      <c r="H55" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0.4</v>
+      </c>
       <c r="J55" s="12"/>
       <c r="K55" s="10"/>
-      <c r="L55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M55" s="10"/>
+      <c r="L55" s="7">
+        <v>1.37</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="s">
-        <v>33</v>
+      <c r="A56" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2129,24 +2121,16 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0.6</v>
-      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="L56" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2154,24 +2138,20 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="H57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="L57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="12"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="s">
-        <v>61</v>
+      <c r="A58" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2179,16 +2159,24 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="H58" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
+      <c r="L58" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="s">
-        <v>34</v>
+      <c r="A59" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2196,20 +2184,24 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
-      <c r="H59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="10"/>
+      <c r="H59" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="J59" s="12"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" s="10"/>
+      <c r="L59" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="M59" s="8">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
-        <v>62</v>
+      <c r="A60" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -2217,24 +2209,16 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0.4</v>
-      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="L60" s="7">
-        <v>1.64</v>
-      </c>
-      <c r="M60" s="7">
-        <v>0.4</v>
-      </c>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2242,24 +2226,20 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="K61" s="12"/>
-      <c r="L61" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="L61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="12"/>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="s">
-        <v>64</v>
+      <c r="A62" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2267,24 +2247,24 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
-      <c r="H62" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="I62" s="8">
-        <v>0.001</v>
-      </c>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0.12</v>
+      </c>
       <c r="L62" s="7">
-        <v>1.06</v>
+        <v>1.52</v>
       </c>
       <c r="M62" s="8">
-        <v>0.006</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="s">
-        <v>65</v>
+      <c r="A63" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2294,14 +2274,22 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
+      <c r="J63" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L63" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2322,7 +2310,7 @@
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2347,7 +2335,7 @@
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -2409,7 +2397,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -2589,10 +2577,10 @@
         <v>0.3</v>
       </c>
       <c r="H7" s="7">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I7" s="8">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="J7" s="7">
         <v>2.04</v>
@@ -2601,7 +2589,7 @@
         <v>0.001</v>
       </c>
       <c r="L7" s="7">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M7" s="7">
         <v>0.3</v>
@@ -2630,7 +2618,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>11</v>
@@ -2642,10 +2630,10 @@
         <v>11</v>
       </c>
       <c r="L8" s="7">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="M8" s="8">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="9">
@@ -2671,10 +2659,10 @@
         <v>0.007</v>
       </c>
       <c r="H9" s="7">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="I9" s="8">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="J9" s="7">
         <v>4.09</v>
@@ -2683,10 +2671,10 @@
         <v>11</v>
       </c>
       <c r="L9" s="7">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M9" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -2712,7 +2700,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>11</v>
@@ -2724,10 +2712,10 @@
         <v>11</v>
       </c>
       <c r="L10" s="7">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="M10" s="8">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="11">
@@ -2787,10 +2775,10 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="7">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="M13" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -2812,10 +2800,10 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="7">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="M14" s="7">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
@@ -2875,10 +2863,10 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="7">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M17" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
@@ -2988,10 +2976,10 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="7">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="M22" s="8">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="23">
@@ -3013,10 +3001,10 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="7">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="M23" s="8">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="24">
@@ -3227,7 +3215,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="7">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="M33" s="7">
         <v>0.6</v>
@@ -3290,7 +3278,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="7">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M36" s="7">
         <v>0.2</v>
@@ -3315,10 +3303,10 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="7">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="M37" s="8">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="38">
@@ -3340,7 +3328,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="7">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="M38" s="7">
         <v>0.3</v>
@@ -3348,7 +3336,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3365,7 +3353,7 @@
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3386,7 +3374,7 @@
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -3395,23 +3383,23 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="7">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="I41" s="8">
-        <v>0.042</v>
+        <v>0.036</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="7">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="M41" s="8">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -3428,15 +3416,15 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="7">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="M42" s="7">
-        <v>0.077</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -3453,7 +3441,7 @@
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -3474,7 +3462,7 @@
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -3483,7 +3471,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="7">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="I45" s="7">
         <v>0.8</v>
@@ -3491,10 +3479,10 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="7">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="M45" s="7">
-        <v>0.08</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="46">
@@ -3516,7 +3504,7 @@
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -3537,7 +3525,7 @@
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3546,23 +3534,23 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="7">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="I48" s="8">
-        <v>0.017</v>
+        <v>0.033</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="7">
-        <v>1.59</v>
-      </c>
-      <c r="M48" s="8">
-        <v>0.039</v>
+        <v>1.49</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0.071</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
-        <v>54</v>
+      <c r="A49" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -3570,24 +3558,16 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0.4</v>
-      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0.3</v>
-      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>55</v>
+      <c r="A50" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -3595,16 +3575,20 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
+      <c r="L50" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="M50" s="10"/>
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -3612,20 +3596,24 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="10"/>
+      <c r="H51" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.6</v>
+      </c>
       <c r="J51" s="12"/>
       <c r="K51" s="10"/>
-      <c r="L51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="10"/>
+      <c r="L51" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -3634,23 +3622,23 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="7">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="I52" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="7">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="M52" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
-        <v>58</v>
+      <c r="A53" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -3658,24 +3646,16 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="7">
-        <v>0.87</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
-      <c r="L53" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0.3</v>
-      </c>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>59</v>
+      <c r="A54" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -3683,11 +3663,15 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="H54" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
+      <c r="L54" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="M54" s="10"/>
     </row>
     <row r="55">
@@ -3700,20 +3684,24 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="10"/>
+      <c r="H55" s="7">
+        <v>1.16</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J55" s="12"/>
       <c r="K55" s="10"/>
-      <c r="L55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M55" s="10"/>
+      <c r="L55" s="7">
+        <v>1.16</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="s">
-        <v>33</v>
+      <c r="A56" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -3721,24 +3709,16 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="L56" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0.8</v>
-      </c>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -3746,24 +3726,20 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0.2</v>
-      </c>
+      <c r="H57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0.4</v>
-      </c>
+      <c r="L57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="12"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="s">
-        <v>61</v>
+      <c r="A58" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -3771,16 +3747,24 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="H58" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0.072</v>
+      </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
+      <c r="L58" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="s">
-        <v>34</v>
+      <c r="A59" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -3788,20 +3772,24 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
-      <c r="H59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="10"/>
+      <c r="H59" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="J59" s="12"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" s="10"/>
+      <c r="L59" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="M59" s="8">
+        <v>0.007</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
-        <v>62</v>
+      <c r="A60" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -3809,24 +3797,16 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0.07</v>
-      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="L60" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="M60" s="7">
-        <v>0.14</v>
-      </c>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -3834,24 +3814,20 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="7">
-        <v>3.72</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="J61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="K61" s="12"/>
-      <c r="L61" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0.4</v>
-      </c>
+      <c r="L61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="12"/>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="s">
-        <v>64</v>
+      <c r="A62" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -3859,24 +3835,24 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
-      <c r="H62" s="7">
-        <v>1.06</v>
-      </c>
-      <c r="I62" s="8">
-        <v>0.001</v>
-      </c>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0.15</v>
+      </c>
       <c r="L62" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="M62" s="8">
-        <v>0.008</v>
+        <v>1.07</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0.7</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="s">
-        <v>65</v>
+      <c r="A63" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -3886,14 +3862,22 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
+      <c r="J63" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -3914,7 +3898,7 @@
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -3939,7 +3923,7 @@
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -3987,7 +3971,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.25"/>
-    <col customWidth="1" min="2" max="2" width="94.25"/>
+    <col customWidth="1" min="2" max="2" width="96.88"/>
     <col customWidth="1" min="3" max="3" width="92.13"/>
   </cols>
   <sheetData>
@@ -3996,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -4004,10 +3988,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -4015,10 +3999,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -4026,10 +4010,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -4037,10 +4021,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -4048,10 +4032,10 @@
         <v>35</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -4059,10 +4043,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -4070,10 +4054,10 @@
         <v>38</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -4081,32 +4065,32 @@
         <v>42</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -4114,65 +4098,65 @@
         <v>51</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4230,19 +4214,19 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -4270,19 +4254,19 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B3" s="22">
-        <v>0.2008193</v>
+        <v>0.1651608</v>
       </c>
       <c r="C3" s="22">
-        <v>0.1294163</v>
+        <v>0.1097067</v>
       </c>
       <c r="D3" s="22">
-        <v>1620.106</v>
+        <v>1472.3317</v>
       </c>
       <c r="E3" s="22">
-        <v>1653.286</v>
+        <v>1505.785</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -4310,19 +4294,19 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B4" s="22">
-        <v>0.2114602</v>
+        <v>0.1899716</v>
       </c>
       <c r="C4" s="22">
-        <v>0.1296329</v>
+        <v>0.1198587</v>
       </c>
       <c r="D4" s="22">
-        <v>1619.703</v>
+        <v>1455.5426</v>
       </c>
       <c r="E4" s="22">
-        <v>1691.585</v>
+        <v>1528.005</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -4350,19 +4334,19 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B5" s="22">
-        <v>0.4021059</v>
+        <v>0.3971459</v>
       </c>
       <c r="C5" s="22">
-        <v>0.2795054</v>
+        <v>0.2879893</v>
       </c>
       <c r="D5" s="22">
-        <v>1340.799</v>
+        <v>1177.495</v>
       </c>
       <c r="E5" s="22">
-        <v>1409.484</v>
+        <v>1247.559</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -4390,19 +4374,19 @@
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B6" s="22">
-        <v>0.4095542</v>
+        <v>0.4470886</v>
       </c>
       <c r="C6" s="22">
-        <v>0.2804675</v>
+        <v>0.3299582</v>
       </c>
       <c r="D6" s="22">
-        <v>1339.008</v>
+        <v>1108.0885</v>
       </c>
       <c r="E6" s="22">
-        <v>1435.306</v>
+        <v>1188.727</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -4430,19 +4414,19 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="22">
-        <v>0.2041336</v>
+        <v>0.1694883</v>
       </c>
       <c r="C7" s="22">
-        <v>0.1296711</v>
+        <v>0.1105141</v>
       </c>
       <c r="D7" s="22">
-        <v>1619.632</v>
+        <v>1470.9964</v>
       </c>
       <c r="E7" s="22">
-        <v>1663.846</v>
+        <v>1515.597</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -4473,16 +4457,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="22">
-        <v>0.5587417</v>
+        <v>0.5947864</v>
       </c>
       <c r="C8" s="22">
-        <v>0.3994219</v>
+        <v>0.4525958</v>
       </c>
       <c r="D8" s="22">
-        <v>1117.641</v>
+        <v>905.2753</v>
       </c>
       <c r="E8" s="22">
-        <v>1291.654</v>
+        <v>1066.349</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -4540,7 +4524,7 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -4567,20 +4551,20 @@
       <c r="AB10" s="18"/>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>95</v>
+      <c r="A11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -4607,19 +4591,19 @@
       <c r="AB11" s="18"/>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="22">
+      <c r="A12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="27">
         <v>0.2008193</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="27">
         <v>0.1294163</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="27">
         <v>1620.106</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="27">
         <v>1653.286</v>
       </c>
       <c r="F12" s="18"/>
@@ -4647,19 +4631,19 @@
       <c r="AB12" s="18"/>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="A13" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="27">
         <v>0.2114602</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="27">
         <v>0.1296329</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="27">
         <v>1619.703</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="27">
         <v>1691.585</v>
       </c>
       <c r="F13" s="18"/>
@@ -4687,19 +4671,19 @@
       <c r="AB13" s="18"/>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="22">
+      <c r="A14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="27">
         <v>0.4021059</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="27">
         <v>0.2795054</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="27">
         <v>1340.799</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="27">
         <v>1409.484</v>
       </c>
       <c r="F14" s="18"/>
@@ -4727,20 +4711,20 @@
       <c r="AB14" s="18"/>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="22">
-        <v>0.4095542</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0.2804675</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1339.008</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1435.306</v>
+      <c r="A15" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.405813</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.2805043</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1338.94</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1419.188</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -4767,19 +4751,19 @@
       <c r="AB15" s="18"/>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="22">
+      <c r="A16" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="27">
         <v>0.2041336</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="27">
         <v>0.1296711</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="27">
         <v>1619.632</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="27">
         <v>1663.846</v>
       </c>
       <c r="F16" s="18"/>
@@ -4807,20 +4791,20 @@
       <c r="AB16" s="18"/>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="22">
-        <v>0.5587417</v>
-      </c>
-      <c r="C17" s="22">
-        <v>0.3994219</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1117.641</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1291.654</v>
+      <c r="B17" s="27">
+        <v>0.5563482</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.4003092</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1115.99</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1274.649</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -4847,7 +4831,7 @@
       <c r="AB17" s="18"/>
     </row>
     <row r="18">
-      <c r="A18" s="18"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>

--- a/final outputs for writing/Model results.xlsx
+++ b/final outputs for writing/Model results.xlsx
@@ -13,17 +13,19 @@
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
+    <sheet name="females and males" sheetId="12" r:id="rId9"/>
     <sheet name="Females" sheetId="8" r:id="rId1"/>
     <sheet name="Males" sheetId="9" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
     <sheet name="Model Evaluations" sheetId="10" r:id="rId4"/>
+    <sheet name="Summary Table" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Females</t>
   </si>
@@ -229,9 +231,9 @@
     <r>
       <rPr>
         <i/>
+        <rFont val="Roboto"/>
         <sz val="9"/>
         <color rgb="FF333333"/>
-        <rFont val="Roboto"/>
       </rPr>
       <t>1</t>
     </r>
@@ -338,9 +340,9 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Roboto"/>
         <sz val="11"/>
         <color rgb="FF333333"/>
-        <rFont val="Roboto"/>
       </rPr>
       <t> OR = Odds Ratio</t>
     </r>
@@ -350,13 +352,171 @@
   </si>
   <si>
     <t>Note - I have not checked to see if these results are still reflected in the new model groupings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results The total sample was 2,956, with 1,396 women and 1,560 men (See Table 1). The reported attendance to religious services for women was 54.8% less than weekly, 31.1% weekly, and 14.1% more than weekly. The reported attendance was 66.7%, 23.5%, and 9.8% for men, respectively. On average both women and men were prediabetic based on the fasting glucose values, ranging from 3.9 to 32.4 for women and 8.0 to 42.8 for men. In terms of RFM, which is a measure of risk for heart disease, women had an average score of 42.4 and men had an average score of 30.1, ranging from 21.4 to 54.7 and 3.1 to 26.1, respectively. Table 1: Demographic, Social Determinants of Health, Religious Attendance, and Cardiovascular Disease Variables by Gender (n = 2,956) Among women, attending religious services once a week or more than once a week, with less than once a week as the reference was not significant. Two demographic variables, age and race and ethnicity, and two behavioral health risk factors, cigarette use and number of healthcare visits in the past 12 months, were significant. There is a positive relationship between age and the likelihood of cardiovascular disease (OR: 2.07, p&lt;0.001, OR: 2.78, p&lt;0.001, OR: 2.66, p&lt;0.001) for women. For model 1w ethnicity is significant, specifically, being a Hispanic women reduced one’s risk of CVD (OR: 0.26, p&lt;0.001). Though race and ethnicity were no longer significant once the health and behavioral risk factors and religious attendance were added in model 2w and model 3w. In models 2w and 3w, the number of healthcare visits is significant for increasing the risk for CVD. Reporting one or fewer visits in the past 12 months being the reference, those with two to three visits had an odd ratio of 5.59 (p&lt;.05), four to nine visits had a odds ratio of 6.33 (p&lt;.05), ten to twelve visits had an odds ratio of 12.5 (p&lt;.05), and 13 and more had an odds ratio of 10.1 (p&lt;.05). Being a current cigarette smoker increased the risk of CVD, with the reference being never having smoked, models 2w and 3w show an increased risk for CVD (OR:5.29, p&lt;0.001, OR: 5.53, p&lt;0.001) while those reporting never to use tobacco or being a former tobacco smoker were not significant (See Table 2). Table 2: Logistic regression models for Women respondents, odds ratio, confidence interval, and level of significance In the models for men, there were significant findings for age, having difficulty walking, number of healthcare visits over the previous 12 months, RFM, and religious attendance. None of the SDOH variables were significant, and the other variables in health and behavioral health risk factors were not significant. Specifically, there was a significant positive relationship between age and the likelihood of cardiovascular disease (OR: 1.89, p&lt;0.001, OR: 2.47, p&lt;0.001, OR: 2.49, p&lt;0.001). In model 2m, with one or fewer visits in the past 12 months being the reference, those with two to three visits had an odd ratio of 2.85 (p&lt;.05), four to nine visits had a odds ratio of 2.96 (p&lt;.05), ten to twelve visits had an odds ratio of 3.6 (p&lt;.05), and 13 and more was not significant. In model 3M the odds rations were 3.14 (p&lt;.05), 3.33 (p&lt;.01), 3.91 (p&lt;.05), and 3.00 (p&lt;.05). In all three models RFM was positively related to an increased risk for CVD, in model 1m the odds ratio was 1.77 (p&lt;.001), in model 2m it was 1.74 (p&lt;.001), and in model 3m it was 1.75 (p&lt;.05), with attending religious services less than once a week. Attending more than weekly was significant with an odds ratio of .25 (p&lt;.05). None of the SDOH were significant, and the remainder of the health and behavioral health factors were not significant at the p&lt;.05 level. It is important to note that some features, although not significant within a 95% confidence interval, were close and at least significant within a 90% C.I. They include ethnicity for model 1m (OR: 0.62, P=.057) indicating that being a Hispanic male reduces one’s risk of CVD. Also, having high blood pressure for models 2m and 3m (OR: 1.68 P&lt;.063 and OR: 1.66, P&lt;.071) as well as fasting glucose for models 2m and 3m (OR: 1.27 P&lt;.058 and OR: 1.26, P&lt;.072) indicate that as levels of high blood pressure or fasting glucose increase so does one’s risk of CVD. Finally, for model 2m being a current smoker increases CVD risks (OR: 2.06 P&lt;.062) (See Table 3). Table 3: Logistic regression models for Male respondents, odds ratio, confidence interval, and level of significance Table 4 displays the resulting p-values and BICs. All models show significance (p &lt;.000), indicating that they are all a better fit compared to the ‘empty model’. Lower BIC values are noted for both the second and third models (irrespective of gender) when compared to the first model (1w/1m) indicating that the addition of variables in models 2 and 3 were beneficial and did not significantly reduce their goodness-of-fit. Table 4: Statistics for both models </t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std. Dev.</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Pctl. 25</t>
+  </si>
+  <si>
+    <t>Pctl. 75</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>... 0 to 1</t>
+  </si>
+  <si>
+    <t>... 2 to 3</t>
+  </si>
+  <si>
+    <t>... 4 to 9</t>
+  </si>
+  <si>
+    <t>... 10 to 12</t>
+  </si>
+  <si>
+    <t>... 13 or more</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>... Male</t>
+  </si>
+  <si>
+    <t>... Female</t>
+  </si>
+  <si>
+    <t>... Non-Hispanic White</t>
+  </si>
+  <si>
+    <t>... Hispanic</t>
+  </si>
+  <si>
+    <t>... Non-Hispanic Black</t>
+  </si>
+  <si>
+    <t>... High School/GED</t>
+  </si>
+  <si>
+    <t>... Less than High School</t>
+  </si>
+  <si>
+    <t>... Some college</t>
+  </si>
+  <si>
+    <t>... College Graduate or above</t>
+  </si>
+  <si>
+    <t>... Never Married</t>
+  </si>
+  <si>
+    <t>... Married</t>
+  </si>
+  <si>
+    <t>... Previously Married</t>
+  </si>
+  <si>
+    <t>... Never true</t>
+  </si>
+  <si>
+    <t>... Often True</t>
+  </si>
+  <si>
+    <t>... Sometimes true</t>
+  </si>
+  <si>
+    <t>... Covered</t>
+  </si>
+  <si>
+    <t>... Not Covered</t>
+  </si>
+  <si>
+    <t>... Yes</t>
+  </si>
+  <si>
+    <t>... No</t>
+  </si>
+  <si>
+    <t>... Poverty Index &gt; 1.85</t>
+  </si>
+  <si>
+    <t>... Poverty Index in (1.30, 1.85)</t>
+  </si>
+  <si>
+    <t>... Poverty Index &lt;= 1.3</t>
+  </si>
+  <si>
+    <t>... Borderline</t>
+  </si>
+  <si>
+    <t>... Never smoked</t>
+  </si>
+  <si>
+    <t>... Past smoker</t>
+  </si>
+  <si>
+    <t>... Current smoker</t>
+  </si>
+  <si>
+    <t>... Less than Weekly</t>
+  </si>
+  <si>
+    <t>... Weekly</t>
+  </si>
+  <si>
+    <t>... More than Weekly</t>
+  </si>
+  <si>
+    <t>cvd</t>
+  </si>
+  <si>
+    <t>... 0</t>
+  </si>
+  <si>
+    <t>... 1</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Maes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#.00%"/>
+  </numFmts>
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -461,6 +621,143 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -488,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -567,11 +864,421 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -652,6 +1359,235 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="32" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="36" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="39" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="40" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="32" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="38" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,11 +1805,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EB20BB-3932-431D-ACE4-A838C11E6F6B}">
   <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q:AA" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -893,7 +1829,7 @@
     <col min="17" max="17" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="47.25" customHeight="1" thickTop="1">
+    <row r="1" customHeight="1" ht="46">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -945,7 +1881,7 @@
       </c>
       <c r="AA1" s="13"/>
     </row>
-    <row r="2" spans="1:27" ht="16.5" thickBot="1">
+    <row r="2" ht="15">
       <c r="A2" s="12"/>
       <c r="B2" s="6" t="s">
         <v>66</v>
@@ -1015,7 +1951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="16.5" thickBot="1">
+    <row r="3" ht="15">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1089,7 +2025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+    <row r="4" customHeight="1" ht="63">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1119,7 +2055,7 @@
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="5" customHeight="1" ht="31">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -1171,7 +2107,7 @@
       </c>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="6" customHeight="1" ht="31">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -1191,7 +2127,7 @@
         <v>2.15</v>
       </c>
       <c r="G6" s="9">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6E-2</v>
       </c>
       <c r="H6" s="8">
         <v>3.43</v>
@@ -1209,7 +2145,7 @@
         <v>3.29</v>
       </c>
       <c r="M6" s="9">
-        <v>8.0000000000000002E-3</v>
+        <v>8E-3</v>
       </c>
       <c r="Q6" s="10" t="s">
         <v>68</v>
@@ -1236,16 +2172,16 @@
         <v>3.29</v>
       </c>
       <c r="Y6" s="9">
-        <v>8.0000000000000002E-3</v>
+        <v>8E-3</v>
       </c>
       <c r="Z6" s="8">
         <v>3.29</v>
       </c>
       <c r="AA6" s="9">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+        <v>8E-3</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="31">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -1265,16 +2201,16 @@
         <v>2.6</v>
       </c>
       <c r="G7" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>4E-3</v>
       </c>
       <c r="H7" s="8">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="8">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>10</v>
@@ -1283,7 +2219,7 @@
         <v>3.47</v>
       </c>
       <c r="M7" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>5E-3</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>69</v>
@@ -1298,10 +2234,10 @@
         <v>2.62</v>
       </c>
       <c r="U7" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>4E-3</v>
       </c>
       <c r="V7" s="8">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>10</v>
@@ -1310,16 +2246,16 @@
         <v>3.41</v>
       </c>
       <c r="Y7" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>5E-3</v>
       </c>
       <c r="Z7" s="8">
         <v>3.47</v>
       </c>
       <c r="AA7" s="9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+        <v>5E-3</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="31">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -1339,7 +2275,7 @@
         <v>2.91</v>
       </c>
       <c r="G8" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>4E-3</v>
       </c>
       <c r="H8" s="8">
         <v>5.27</v>
@@ -1357,7 +2293,7 @@
         <v>3.98</v>
       </c>
       <c r="M8" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>5E-3</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>70</v>
@@ -1372,7 +2308,7 @@
         <v>2.97</v>
       </c>
       <c r="U8" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>4E-3</v>
       </c>
       <c r="V8" s="8">
         <v>5.44</v>
@@ -1384,16 +2320,16 @@
         <v>3.83</v>
       </c>
       <c r="Y8" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>6E-3</v>
       </c>
       <c r="Z8" s="8">
         <v>3.98</v>
       </c>
       <c r="AA8" s="9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+        <v>5E-3</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="31">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -1416,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="8">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>10</v>
@@ -1431,7 +2367,7 @@
         <v>4.29</v>
       </c>
       <c r="M9" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>3E-3</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>71</v>
@@ -1455,19 +2391,19 @@
         <v>10</v>
       </c>
       <c r="X9" s="8">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="Y9" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>3E-3</v>
       </c>
       <c r="Z9" s="8">
         <v>4.29</v>
       </c>
       <c r="AA9" s="9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+        <v>3E-3</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="31">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1497,7 +2433,7 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="11" customHeight="1" ht="48">
       <c r="A11" s="10" t="s">
         <v>72</v>
       </c>
@@ -1541,7 +2477,7 @@
       </c>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="12" customHeight="1" ht="31">
       <c r="A12" s="10" t="s">
         <v>73</v>
       </c>
@@ -1551,7 +2487,7 @@
         <v>0.61</v>
       </c>
       <c r="E12" s="9">
-        <v>1.0999999999999999E-2</v>
+        <v>1.1E-2</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1572,13 +2508,13 @@
         <v>0.61</v>
       </c>
       <c r="S12" s="9">
-        <v>1.0999999999999999E-2</v>
+        <v>1.1E-2</v>
       </c>
       <c r="T12" s="8">
         <v>0.51</v>
       </c>
       <c r="U12" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>3E-3</v>
       </c>
       <c r="V12" s="8">
         <v>0.46</v>
@@ -1590,7 +2526,7 @@
         <v>0.44</v>
       </c>
       <c r="Y12" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>3E-3</v>
       </c>
       <c r="Z12" s="8">
         <v>0.42</v>
@@ -1599,14 +2535,14 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="13" customHeight="1" ht="48">
       <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="E13" s="8">
         <v>0.5</v>
@@ -1621,13 +2557,13 @@
         <v>0.63</v>
       </c>
       <c r="M13" s="8">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2E-2</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>74</v>
       </c>
       <c r="R13" s="8">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="S13" s="8">
         <v>0.5</v>
@@ -1648,16 +2584,16 @@
         <v>0.66</v>
       </c>
       <c r="Y13" s="8">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3E-2</v>
       </c>
       <c r="Z13" s="8">
         <v>0.63</v>
       </c>
       <c r="AA13" s="8">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+        <v>5.2E-2</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="31">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +2623,7 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="15" customHeight="1" ht="48">
       <c r="A15" s="10" t="s">
         <v>75</v>
       </c>
@@ -1731,14 +2667,14 @@
       </c>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+    <row r="16" customHeight="1" ht="63">
       <c r="A16" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="E16" s="8">
         <v>0.6</v>
@@ -1759,7 +2695,7 @@
         <v>76</v>
       </c>
       <c r="R16" s="8">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="S16" s="8">
         <v>0.6</v>
@@ -1789,7 +2725,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="17" customHeight="1" ht="48">
       <c r="A17" s="10" t="s">
         <v>77</v>
       </c>
@@ -1847,7 +2783,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="79.5" customHeight="1" thickBot="1">
+    <row r="18" customHeight="1" ht="78">
       <c r="A18" s="10" t="s">
         <v>78</v>
       </c>
@@ -1884,13 +2820,13 @@
         <v>0.62</v>
       </c>
       <c r="U18" s="8">
-        <v>6.8000000000000005E-2</v>
+        <v>6.8E-2</v>
       </c>
       <c r="V18" s="8">
         <v>0.54</v>
       </c>
       <c r="W18" s="9">
-        <v>3.4000000000000002E-2</v>
+        <v>3.4E-2</v>
       </c>
       <c r="X18" s="8">
         <v>0.73</v>
@@ -1905,7 +2841,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="19" customHeight="1" ht="31">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
@@ -1935,7 +2871,7 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
     </row>
-    <row r="20" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="20" customHeight="1" ht="48">
       <c r="A20" s="10" t="s">
         <v>79</v>
       </c>
@@ -1979,7 +2915,7 @@
       </c>
       <c r="AA20" s="8"/>
     </row>
-    <row r="21" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="21" customHeight="1" ht="31">
       <c r="A21" s="10" t="s">
         <v>80</v>
       </c>
@@ -2001,7 +2937,7 @@
         <v>3.74</v>
       </c>
       <c r="M21" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8E-2</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>80</v>
@@ -2016,7 +2952,7 @@
         <v>2.42</v>
       </c>
       <c r="U21" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>5.6E-2</v>
       </c>
       <c r="V21" s="8">
         <v>1.78</v>
@@ -2028,16 +2964,16 @@
         <v>3.52</v>
       </c>
       <c r="Y21" s="9">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3E-2</v>
       </c>
       <c r="Z21" s="8">
         <v>3.74</v>
       </c>
       <c r="AA21" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="48" customHeight="1" thickBot="1">
+        <v>2.8E-2</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="48">
       <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
@@ -2086,7 +3022,7 @@
         <v>3.29</v>
       </c>
       <c r="Y22" s="9">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1E-2</v>
       </c>
       <c r="Z22" s="8">
         <v>3.56</v>
@@ -2095,7 +3031,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="23" customHeight="1" ht="48">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +3061,7 @@
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
-    <row r="24" spans="1:27" ht="16.5" thickBot="1">
+    <row r="24" ht="15">
       <c r="A24" s="10" t="s">
         <v>82</v>
       </c>
@@ -2165,7 +3101,7 @@
       </c>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:27" ht="16.5" thickBot="1">
+    <row r="25" ht="15">
       <c r="A25" s="10" t="s">
         <v>83</v>
       </c>
@@ -2203,7 +3139,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>10</v>
@@ -2215,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="26" customHeight="1" ht="31">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
@@ -2245,7 +3181,7 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:27" ht="16.5" thickBot="1">
+    <row r="27" ht="15">
       <c r="A27" s="10" t="s">
         <v>82</v>
       </c>
@@ -2285,7 +3221,7 @@
       </c>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:27" ht="16.5" thickBot="1">
+    <row r="28" ht="15">
       <c r="A28" s="10" t="s">
         <v>83</v>
       </c>
@@ -2335,7 +3271,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="29" customHeight="1" ht="31">
       <c r="A29" s="7" t="s">
         <v>18</v>
       </c>
@@ -2365,7 +3301,7 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
     </row>
-    <row r="30" spans="1:27" ht="16.5" thickBot="1">
+    <row r="30" ht="15">
       <c r="A30" s="10" t="s">
         <v>82</v>
       </c>
@@ -2405,7 +3341,7 @@
       </c>
       <c r="AA30" s="8"/>
     </row>
-    <row r="31" spans="1:27" ht="16.5" thickBot="1">
+    <row r="31" ht="15">
       <c r="A31" s="10" t="s">
         <v>83</v>
       </c>
@@ -2455,7 +3391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="32" customHeight="1" ht="31">
       <c r="A32" s="10" t="s">
         <v>84</v>
       </c>
@@ -2505,7 +3441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="33" customHeight="1" ht="31">
       <c r="A33" s="7" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +3471,7 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
     </row>
-    <row r="34" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+    <row r="34" customHeight="1" ht="63">
       <c r="A34" s="10" t="s">
         <v>85</v>
       </c>
@@ -2575,7 +3511,7 @@
       </c>
       <c r="AA34" s="8"/>
     </row>
-    <row r="35" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="35" customHeight="1" ht="31">
       <c r="A35" s="10" t="s">
         <v>86</v>
       </c>
@@ -2587,7 +3523,7 @@
         <v>1.43</v>
       </c>
       <c r="G35" s="9">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7E-2</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2625,7 +3561,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="36" customHeight="1" ht="48">
       <c r="A36" s="10" t="s">
         <v>87</v>
       </c>
@@ -2647,7 +3583,7 @@
         <v>1.9</v>
       </c>
       <c r="M36" s="9">
-        <v>0.02</v>
+        <v>2E-2</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>87</v>
@@ -2658,7 +3594,7 @@
         <v>1.98</v>
       </c>
       <c r="U36" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>3E-3</v>
       </c>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -2666,16 +3602,16 @@
         <v>1.85</v>
       </c>
       <c r="Y36" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5E-2</v>
       </c>
       <c r="Z36" s="8">
         <v>1.9</v>
       </c>
       <c r="AA36" s="9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="16.5" thickBot="1">
+        <v>2E-2</v>
+      </c>
+    </row>
+    <row r="37" ht="15">
       <c r="A37" s="7" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +3661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="38" customHeight="1" ht="31">
       <c r="A38" s="7" t="s">
         <v>22</v>
       </c>
@@ -2755,7 +3691,7 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
     </row>
-    <row r="39" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="39" customHeight="1" ht="31">
       <c r="A39" s="10" t="s">
         <v>88</v>
       </c>
@@ -2795,7 +3731,7 @@
       </c>
       <c r="AA39" s="8"/>
     </row>
-    <row r="40" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="40" customHeight="1" ht="31">
       <c r="A40" s="10" t="s">
         <v>89</v>
       </c>
@@ -2809,7 +3745,7 @@
         <v>2.56</v>
       </c>
       <c r="I40" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>3E-3</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2817,7 +3753,7 @@
         <v>2.76</v>
       </c>
       <c r="M40" s="9">
-        <v>8.9999999999999993E-3</v>
+        <v>9E-3</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>89</v>
@@ -2836,16 +3772,16 @@
         <v>2.71</v>
       </c>
       <c r="Y40" s="9">
-        <v>0.01</v>
+        <v>1E-2</v>
       </c>
       <c r="Z40" s="8">
         <v>2.76</v>
       </c>
       <c r="AA40" s="9">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="48" customHeight="1" thickBot="1">
+        <v>9E-3</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="48">
       <c r="A41" s="10" t="s">
         <v>90</v>
       </c>
@@ -2895,7 +3831,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="42" customHeight="1" ht="48">
       <c r="A42" s="7" t="s">
         <v>23</v>
       </c>
@@ -2925,7 +3861,7 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
     </row>
-    <row r="43" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="43" customHeight="1" ht="31">
       <c r="A43" s="10" t="s">
         <v>91</v>
       </c>
@@ -2965,7 +3901,7 @@
       </c>
       <c r="AA43" s="8"/>
     </row>
-    <row r="44" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="44" customHeight="1" ht="48">
       <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
@@ -3015,7 +3951,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="16.5" thickBot="1">
+    <row r="45" customHeight="1" ht="18">
       <c r="A45" s="7" t="s">
         <v>24</v>
       </c>
@@ -3045,7 +3981,7 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
     </row>
-    <row r="46" spans="1:27" ht="16.5" thickBot="1">
+    <row r="46" customHeight="1" ht="18">
       <c r="A46" s="10" t="s">
         <v>83</v>
       </c>
@@ -3085,7 +4021,7 @@
       </c>
       <c r="AA46" s="8"/>
     </row>
-    <row r="47" spans="1:27" ht="16.5" thickBot="1">
+    <row r="47" customHeight="1" ht="20">
       <c r="A47" s="10" t="s">
         <v>82</v>
       </c>
@@ -3099,7 +4035,7 @@
         <v>1.54</v>
       </c>
       <c r="I47" s="9">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7E-2</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -3107,7 +4043,7 @@
         <v>1.51</v>
       </c>
       <c r="M47" s="8">
-        <v>6.5000000000000002E-2</v>
+        <v>6.5E-2</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>82</v>
@@ -3126,16 +4062,16 @@
         <v>1.47</v>
       </c>
       <c r="Y47" s="8">
-        <v>8.5000000000000006E-2</v>
+        <v>8.5E-2</v>
       </c>
       <c r="Z47" s="8">
         <v>1.51</v>
       </c>
       <c r="AA47" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+        <v>6.5E-2</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="63">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -3165,7 +4101,7 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
     </row>
-    <row r="49" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+    <row r="49" customHeight="1" ht="63">
       <c r="A49" s="10" t="s">
         <v>93</v>
       </c>
@@ -3205,7 +4141,7 @@
       </c>
       <c r="AA49" s="8"/>
     </row>
-    <row r="50" spans="1:27" ht="79.5" customHeight="1" thickBot="1">
+    <row r="50" customHeight="1" ht="78">
       <c r="A50" s="10" t="s">
         <v>94</v>
       </c>
@@ -3216,7 +4152,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="I50" s="8">
         <v>0.7</v>
@@ -3255,7 +4191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+    <row r="51" customHeight="1" ht="63">
       <c r="A51" s="10" t="s">
         <v>95</v>
       </c>
@@ -3305,7 +4241,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="52" customHeight="1" ht="48">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -3335,7 +4271,7 @@
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
     </row>
-    <row r="53" spans="1:27" ht="16.5" thickBot="1">
+    <row r="53" ht="15">
       <c r="A53" s="10" t="s">
         <v>83</v>
       </c>
@@ -3375,7 +4311,7 @@
       </c>
       <c r="AA53" s="8"/>
     </row>
-    <row r="54" spans="1:27" ht="16.5" thickBot="1">
+    <row r="54" ht="15">
       <c r="A54" s="10" t="s">
         <v>82</v>
       </c>
@@ -3425,7 +4361,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="55" customHeight="1" ht="48">
       <c r="A55" s="7" t="s">
         <v>27</v>
       </c>
@@ -3455,7 +4391,7 @@
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
     </row>
-    <row r="56" spans="1:27" ht="16.5" thickBot="1">
+    <row r="56" ht="15">
       <c r="A56" s="10" t="s">
         <v>83</v>
       </c>
@@ -3495,7 +4431,7 @@
       </c>
       <c r="AA56" s="8"/>
     </row>
-    <row r="57" spans="1:27" ht="16.5" thickBot="1">
+    <row r="57" ht="15">
       <c r="A57" s="10" t="s">
         <v>82</v>
       </c>
@@ -3545,7 +4481,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="58" customHeight="1" ht="31">
       <c r="A58" s="7" t="s">
         <v>28</v>
       </c>
@@ -3567,7 +4503,7 @@
         <v>1.06</v>
       </c>
       <c r="M58" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>5E-3</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>28</v>
@@ -3586,16 +4522,16 @@
         <v>1.05</v>
       </c>
       <c r="Y58" s="9">
-        <v>8.0000000000000002E-3</v>
+        <v>8E-3</v>
       </c>
       <c r="Z58" s="8">
         <v>1.06</v>
       </c>
       <c r="AA58" s="9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" ht="48" customHeight="1" thickBot="1">
+        <v>5E-3</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" ht="48">
       <c r="A59" s="7" t="s">
         <v>29</v>
       </c>
@@ -3625,7 +4561,7 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
     </row>
-    <row r="60" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="60" customHeight="1" ht="48">
       <c r="A60" s="10" t="s">
         <v>96</v>
       </c>
@@ -3661,7 +4597,7 @@
       </c>
       <c r="AA60" s="8"/>
     </row>
-    <row r="61" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="61" customHeight="1" ht="31">
       <c r="A61" s="10" t="s">
         <v>97</v>
       </c>
@@ -3683,7 +4619,7 @@
         <v>1.52</v>
       </c>
       <c r="M61" s="9">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6E-2</v>
       </c>
       <c r="Q61" s="10" t="s">
         <v>97</v>
@@ -3700,10 +4636,10 @@
         <v>1.52</v>
       </c>
       <c r="AA61" s="9">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="47.25" customHeight="1">
+        <v>3.6E-2</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" ht="46">
       <c r="A62" s="10" t="s">
         <v>98</v>
       </c>
@@ -3745,7 +4681,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15" customHeight="1" thickBot="1">
+    <row r="63" customHeight="1" ht="15">
       <c r="A63" s="14" t="s">
         <v>99</v>
       </c>
@@ -3775,24 +4711,23 @@
       <c r="Z63" s="14"/>
       <c r="AA63" s="14"/>
     </row>
-    <row r="64" spans="1:27" ht="13.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Q63:AA63"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A63:M63"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="A63:M63"/>
+    <mergeCell ref="Q63:AA63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3802,18 +4737,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A37434D-6E32-4765-98EF-86059D0EEA77}">
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0" topLeftCell="A46">
+      <selection activeCell="Q3" sqref="Q3:AA63" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="15" max="15" width="2.85546875" style="17" customWidth="1"/>
     <col min="17" max="17" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60.75" customHeight="1" thickBot="1">
+    <row r="1" customHeight="1" ht="60">
       <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
@@ -3821,7 +4756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="47.25" customHeight="1" thickTop="1">
+    <row r="2" customHeight="1" ht="46">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -3873,7 +4808,7 @@
       </c>
       <c r="AA2" s="13"/>
     </row>
-    <row r="3" spans="1:27" ht="16.5" thickBot="1">
+    <row r="3" ht="15">
       <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>66</v>
@@ -3911,7 +4846,7 @@
       <c r="M3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="12"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="6" t="s">
         <v>66</v>
       </c>
@@ -3943,7 +4878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="16.5" thickBot="1">
+    <row r="4" ht="15">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -4017,7 +4952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+    <row r="5" customHeight="1" ht="63">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -4047,7 +4982,7 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="6" customHeight="1" ht="31">
       <c r="A6" s="10" t="s">
         <v>67</v>
       </c>
@@ -4099,7 +5034,7 @@
       </c>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="7" customHeight="1" ht="31">
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
@@ -4125,7 +5060,7 @@
         <v>1.88</v>
       </c>
       <c r="I7" s="9">
-        <v>0.01</v>
+        <v>1E-2</v>
       </c>
       <c r="J7" s="8">
         <v>2.04</v>
@@ -4158,7 +5093,7 @@
         <v>1.97</v>
       </c>
       <c r="W7" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>6E-3</v>
       </c>
       <c r="X7" s="8">
         <v>1.36</v>
@@ -4173,7 +5108,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="8" customHeight="1" ht="31">
       <c r="A8" s="10" t="s">
         <v>69</v>
       </c>
@@ -4190,7 +5125,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="8">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>10</v>
@@ -4211,7 +5146,7 @@
         <v>2.06</v>
       </c>
       <c r="M8" s="9">
-        <v>8.0000000000000002E-3</v>
+        <v>8E-3</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>69</v>
@@ -4235,30 +5170,30 @@
         <v>10</v>
       </c>
       <c r="X8" s="8">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="Y8" s="9">
-        <v>8.0000000000000002E-3</v>
+        <v>8E-3</v>
       </c>
       <c r="Z8" s="8">
         <v>2.06</v>
       </c>
       <c r="AA8" s="9">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+        <v>8E-3</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="31">
       <c r="A9" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="8">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="8">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>10</v>
@@ -4267,13 +5202,13 @@
         <v>2.23</v>
       </c>
       <c r="G9" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>7E-3</v>
       </c>
       <c r="H9" s="8">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="I9" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>3E-3</v>
       </c>
       <c r="J9" s="8">
         <v>4.09</v>
@@ -4291,16 +5226,16 @@
         <v>70</v>
       </c>
       <c r="R9" s="8">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="T9" s="8">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="U9" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>7E-3</v>
       </c>
       <c r="V9" s="8">
         <v>2.58</v>
@@ -4321,7 +5256,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="10" customHeight="1" ht="31">
       <c r="A10" s="10" t="s">
         <v>71</v>
       </c>
@@ -4383,10 +5318,10 @@
         <v>10</v>
       </c>
       <c r="X10" s="8">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Y10" s="9">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1E-2</v>
       </c>
       <c r="Z10" s="8">
         <v>2.19</v>
@@ -4395,7 +5330,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="11" customHeight="1" ht="31">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -4425,7 +5360,7 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="12" customHeight="1" ht="48">
       <c r="A12" s="10" t="s">
         <v>72</v>
       </c>
@@ -4469,7 +5404,7 @@
       </c>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="13" customHeight="1" ht="31">
       <c r="A13" s="10" t="s">
         <v>73</v>
       </c>
@@ -4479,7 +5414,7 @@
         <v>0.71</v>
       </c>
       <c r="E13" s="9">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9E-2</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -4500,7 +5435,7 @@
         <v>0.71</v>
       </c>
       <c r="S13" s="9">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9E-2</v>
       </c>
       <c r="T13" s="8">
         <v>0.77</v>
@@ -4527,7 +5462,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="14" customHeight="1" ht="48">
       <c r="A14" s="10" t="s">
         <v>74</v>
       </c>
@@ -4585,7 +5520,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="15" customHeight="1" ht="31">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -4615,7 +5550,7 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="16" customHeight="1" ht="48">
       <c r="A16" s="10" t="s">
         <v>75</v>
       </c>
@@ -4659,7 +5594,7 @@
       </c>
       <c r="AA16" s="8"/>
     </row>
-    <row r="17" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+    <row r="17" customHeight="1" ht="63">
       <c r="A17" s="10" t="s">
         <v>76</v>
       </c>
@@ -4717,7 +5652,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="18" customHeight="1" ht="48">
       <c r="A18" s="10" t="s">
         <v>77</v>
       </c>
@@ -4775,7 +5710,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="79.5" customHeight="1" thickBot="1">
+    <row r="19" customHeight="1" ht="78">
       <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
@@ -4833,7 +5768,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="20" customHeight="1" ht="31">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
@@ -4863,7 +5798,7 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
     </row>
-    <row r="21" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="21" customHeight="1" ht="48">
       <c r="A21" s="10" t="s">
         <v>79</v>
       </c>
@@ -4907,7 +5842,7 @@
       </c>
       <c r="AA21" s="8"/>
     </row>
-    <row r="22" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="22" customHeight="1" ht="31">
       <c r="A22" s="10" t="s">
         <v>80</v>
       </c>
@@ -4917,7 +5852,7 @@
         <v>0.53</v>
       </c>
       <c r="E22" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>7E-3</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -4938,25 +5873,25 @@
         <v>0.53</v>
       </c>
       <c r="S22" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>7E-3</v>
       </c>
       <c r="T22" s="8">
         <v>0.49</v>
       </c>
       <c r="U22" s="9">
-        <v>0.01</v>
+        <v>1E-2</v>
       </c>
       <c r="V22" s="8">
         <v>0.52</v>
       </c>
       <c r="W22" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>1.5E-2</v>
       </c>
       <c r="X22" s="8">
         <v>0.48</v>
       </c>
       <c r="Y22" s="9">
-        <v>0.02</v>
+        <v>2E-2</v>
       </c>
       <c r="Z22" s="8">
         <v>0.47</v>
@@ -4965,7 +5900,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="23" customHeight="1" ht="48">
       <c r="A23" s="10" t="s">
         <v>81</v>
       </c>
@@ -4975,7 +5910,7 @@
         <v>0.6</v>
       </c>
       <c r="E23" s="9">
-        <v>0.05</v>
+        <v>5E-2</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -4987,7 +5922,7 @@
         <v>0.42</v>
       </c>
       <c r="M23" s="9">
-        <v>1.0999999999999999E-2</v>
+        <v>1.1E-2</v>
       </c>
       <c r="Q23" s="10" t="s">
         <v>81</v>
@@ -4996,7 +5931,7 @@
         <v>0.6</v>
       </c>
       <c r="S23" s="9">
-        <v>0.05</v>
+        <v>5E-2</v>
       </c>
       <c r="T23" s="8">
         <v>0.61</v>
@@ -5008,22 +5943,22 @@
         <v>0.44</v>
       </c>
       <c r="W23" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>5E-3</v>
       </c>
       <c r="X23" s="8">
         <v>0.43</v>
       </c>
       <c r="Y23" s="9">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3E-2</v>
       </c>
       <c r="Z23" s="8">
         <v>0.42</v>
       </c>
       <c r="AA23" s="9">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="48" customHeight="1" thickBot="1">
+        <v>1.1E-2</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="48">
       <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
@@ -5053,7 +5988,7 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:27" ht="16.5" thickBot="1">
+    <row r="25" ht="15">
       <c r="A25" s="10" t="s">
         <v>82</v>
       </c>
@@ -5093,7 +6028,7 @@
       </c>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27" ht="16.5" thickBot="1">
+    <row r="26" ht="15">
       <c r="A26" s="10" t="s">
         <v>83</v>
       </c>
@@ -5143,7 +6078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="27" customHeight="1" ht="31">
       <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
@@ -5173,7 +6108,7 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:27" ht="16.5" thickBot="1">
+    <row r="28" ht="15">
       <c r="A28" s="10" t="s">
         <v>82</v>
       </c>
@@ -5213,7 +6148,7 @@
       </c>
       <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:27" ht="16.5" thickBot="1">
+    <row r="29" ht="15">
       <c r="A29" s="10" t="s">
         <v>83</v>
       </c>
@@ -5251,7 +6186,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="Y29" s="9" t="s">
         <v>10</v>
@@ -5263,7 +6198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="30" customHeight="1" ht="31">
       <c r="A30" s="7" t="s">
         <v>18</v>
       </c>
@@ -5293,7 +6228,7 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
     </row>
-    <row r="31" spans="1:27" ht="16.5" thickBot="1">
+    <row r="31" ht="15">
       <c r="A31" s="10" t="s">
         <v>82</v>
       </c>
@@ -5333,7 +6268,7 @@
       </c>
       <c r="AA31" s="8"/>
     </row>
-    <row r="32" spans="1:27" ht="16.5" thickBot="1">
+    <row r="32" ht="15">
       <c r="A32" s="10" t="s">
         <v>83</v>
       </c>
@@ -5355,7 +6290,7 @@
         <v>1.71</v>
       </c>
       <c r="M32" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>4E-3</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>83</v>
@@ -5366,7 +6301,7 @@
         <v>1.44</v>
       </c>
       <c r="U32" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8E-2</v>
       </c>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -5374,16 +6309,16 @@
         <v>1.67</v>
       </c>
       <c r="Y32" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>6E-3</v>
       </c>
       <c r="Z32" s="8">
         <v>1.71</v>
       </c>
       <c r="AA32" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+        <v>4E-3</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="31">
       <c r="A33" s="10" t="s">
         <v>84</v>
       </c>
@@ -5395,7 +6330,7 @@
         <v>1.95</v>
       </c>
       <c r="G33" s="8">
-        <v>6.5000000000000002E-2</v>
+        <v>6.5E-2</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5405,7 +6340,7 @@
         <v>2.09</v>
       </c>
       <c r="M33" s="8">
-        <v>6.9000000000000006E-2</v>
+        <v>6.9E-2</v>
       </c>
       <c r="Q33" s="10" t="s">
         <v>84</v>
@@ -5424,16 +6359,16 @@
         <v>2.06</v>
       </c>
       <c r="Y33" s="8">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3E-2</v>
       </c>
       <c r="Z33" s="8">
         <v>2.09</v>
       </c>
       <c r="AA33" s="8">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+        <v>6.9E-2</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="31">
       <c r="A34" s="7" t="s">
         <v>19</v>
       </c>
@@ -5463,7 +6398,7 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
     </row>
-    <row r="35" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+    <row r="35" customHeight="1" ht="63">
       <c r="A35" s="10" t="s">
         <v>85</v>
       </c>
@@ -5503,7 +6438,7 @@
       </c>
       <c r="AA35" s="8"/>
     </row>
-    <row r="36" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="36" customHeight="1" ht="31">
       <c r="A36" s="10" t="s">
         <v>86</v>
       </c>
@@ -5515,7 +6450,7 @@
         <v>1.36</v>
       </c>
       <c r="G36" s="8">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3E-2</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -5553,7 +6488,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="37" customHeight="1" ht="48">
       <c r="A37" s="10" t="s">
         <v>87</v>
       </c>
@@ -5575,7 +6510,7 @@
         <v>1.84</v>
       </c>
       <c r="M37" s="9">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3E-2</v>
       </c>
       <c r="Q37" s="10" t="s">
         <v>87</v>
@@ -5583,7 +6518,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="U37" s="9" t="s">
         <v>10</v>
@@ -5594,16 +6529,16 @@
         <v>1.83</v>
       </c>
       <c r="Y37" s="9">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3E-2</v>
       </c>
       <c r="Z37" s="8">
         <v>1.84</v>
       </c>
       <c r="AA37" s="9">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="16.5" thickBot="1">
+        <v>1.3E-2</v>
+      </c>
+    </row>
+    <row r="38" ht="15">
       <c r="A38" s="7" t="s">
         <v>20</v>
       </c>
@@ -5653,7 +6588,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="39" customHeight="1" ht="31">
       <c r="A39" s="7" t="s">
         <v>22</v>
       </c>
@@ -5683,7 +6618,7 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
     </row>
-    <row r="40" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="40" customHeight="1" ht="31">
       <c r="A40" s="10" t="s">
         <v>88</v>
       </c>
@@ -5723,7 +6658,7 @@
       </c>
       <c r="AA40" s="8"/>
     </row>
-    <row r="41" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="41" customHeight="1" ht="31">
       <c r="A41" s="10" t="s">
         <v>89</v>
       </c>
@@ -5737,12 +6672,12 @@
         <v>1.97</v>
       </c>
       <c r="I41" s="9">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6E-2</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="M41" s="9">
         <v>1.9E-2</v>
@@ -5761,19 +6696,19 @@
         <v>4.7E-2</v>
       </c>
       <c r="X41" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="Y41" s="9">
-        <v>0.02</v>
+        <v>2E-2</v>
       </c>
       <c r="Z41" s="8">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="AA41" s="9">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="42" customHeight="1" ht="48">
       <c r="A42" s="10" t="s">
         <v>90</v>
       </c>
@@ -5808,7 +6743,7 @@
         <v>1.7</v>
       </c>
       <c r="W42" s="9">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3E-2</v>
       </c>
       <c r="X42" s="8">
         <v>1.6</v>
@@ -5823,7 +6758,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="43" customHeight="1" ht="48">
       <c r="A43" s="7" t="s">
         <v>23</v>
       </c>
@@ -5853,7 +6788,7 @@
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
     </row>
-    <row r="44" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="44" customHeight="1" ht="31">
       <c r="A44" s="10" t="s">
         <v>91</v>
       </c>
@@ -5893,7 +6828,7 @@
       </c>
       <c r="AA44" s="8"/>
     </row>
-    <row r="45" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="45" customHeight="1" ht="48">
       <c r="A45" s="10" t="s">
         <v>92</v>
       </c>
@@ -5915,7 +6850,7 @@
         <v>1.72</v>
       </c>
       <c r="M45" s="8">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2E-2</v>
       </c>
       <c r="Q45" s="10" t="s">
         <v>92</v>
@@ -5934,16 +6869,16 @@
         <v>1.73</v>
       </c>
       <c r="Y45" s="8">
-        <v>8.6999999999999994E-2</v>
+        <v>8.7E-2</v>
       </c>
       <c r="Z45" s="8">
         <v>1.72</v>
       </c>
       <c r="AA45" s="8">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="16.5" thickBot="1">
+        <v>9.2E-2</v>
+      </c>
+    </row>
+    <row r="46" ht="15">
       <c r="A46" s="7" t="s">
         <v>24</v>
       </c>
@@ -5973,7 +6908,7 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
     </row>
-    <row r="47" spans="1:27" ht="16.5" thickBot="1">
+    <row r="47" ht="15">
       <c r="A47" s="10" t="s">
         <v>83</v>
       </c>
@@ -6013,7 +6948,7 @@
       </c>
       <c r="AA47" s="8"/>
     </row>
-    <row r="48" spans="1:27" ht="16.5" thickBot="1">
+    <row r="48" ht="15">
       <c r="A48" s="10" t="s">
         <v>82</v>
       </c>
@@ -6027,7 +6962,7 @@
         <v>1.46</v>
       </c>
       <c r="I48" s="9">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3E-2</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -6035,7 +6970,7 @@
         <v>1.49</v>
       </c>
       <c r="M48" s="8">
-        <v>7.0999999999999994E-2</v>
+        <v>7.1E-2</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>82</v>
@@ -6048,22 +6983,22 @@
         <v>1.44</v>
       </c>
       <c r="W48" s="8">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2E-2</v>
       </c>
       <c r="X48" s="8">
         <v>1.49</v>
       </c>
       <c r="Y48" s="8">
-        <v>7.0999999999999994E-2</v>
+        <v>7.1E-2</v>
       </c>
       <c r="Z48" s="8">
         <v>1.49</v>
       </c>
       <c r="AA48" s="8">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+        <v>7.1E-2</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" ht="63">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -6093,7 +7028,7 @@
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
     </row>
-    <row r="50" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+    <row r="50" customHeight="1" ht="63">
       <c r="A50" s="10" t="s">
         <v>93</v>
       </c>
@@ -6133,7 +7068,7 @@
       </c>
       <c r="AA50" s="8"/>
     </row>
-    <row r="51" spans="1:27" ht="79.5" customHeight="1" thickBot="1">
+    <row r="51" customHeight="1" ht="78">
       <c r="A51" s="10" t="s">
         <v>94</v>
       </c>
@@ -6183,7 +7118,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="63.75" customHeight="1" thickBot="1">
+    <row r="52" customHeight="1" ht="63">
       <c r="A52" s="10" t="s">
         <v>95</v>
       </c>
@@ -6233,7 +7168,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="53" customHeight="1" ht="48">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -6263,7 +7198,7 @@
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
     </row>
-    <row r="54" spans="1:27" ht="16.5" thickBot="1">
+    <row r="54" ht="15">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -6303,7 +7238,7 @@
       </c>
       <c r="AA54" s="8"/>
     </row>
-    <row r="55" spans="1:27" ht="16.5" thickBot="1">
+    <row r="55" ht="15">
       <c r="A55" s="10" t="s">
         <v>82</v>
       </c>
@@ -6353,7 +7288,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="56" customHeight="1" ht="48">
       <c r="A56" s="7" t="s">
         <v>27</v>
       </c>
@@ -6383,7 +7318,7 @@
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
     </row>
-    <row r="57" spans="1:27" ht="16.5" thickBot="1">
+    <row r="57" ht="15">
       <c r="A57" s="10" t="s">
         <v>83</v>
       </c>
@@ -6423,7 +7358,7 @@
       </c>
       <c r="AA57" s="8"/>
     </row>
-    <row r="58" spans="1:27" ht="16.5" thickBot="1">
+    <row r="58" ht="15">
       <c r="A58" s="10" t="s">
         <v>82</v>
       </c>
@@ -6437,7 +7372,7 @@
         <v>0.47</v>
       </c>
       <c r="I58" s="8">
-        <v>7.1999999999999995E-2</v>
+        <v>7.2E-2</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -6458,7 +7393,7 @@
         <v>0.45</v>
       </c>
       <c r="W58" s="8">
-        <v>6.0999999999999999E-2</v>
+        <v>6.1E-2</v>
       </c>
       <c r="X58" s="8">
         <v>0.43</v>
@@ -6473,7 +7408,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="59" customHeight="1" ht="31">
       <c r="A59" s="7" t="s">
         <v>28</v>
       </c>
@@ -6495,7 +7430,7 @@
         <v>1.05</v>
       </c>
       <c r="M59" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>7E-3</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>28</v>
@@ -6514,16 +7449,16 @@
         <v>1.05</v>
       </c>
       <c r="Y59" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>7E-3</v>
       </c>
       <c r="Z59" s="8">
         <v>1.05</v>
       </c>
       <c r="AA59" s="9">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" ht="48" customHeight="1" thickBot="1">
+        <v>7E-3</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" ht="48">
       <c r="A60" s="7" t="s">
         <v>29</v>
       </c>
@@ -6553,7 +7488,7 @@
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
     </row>
-    <row r="61" spans="1:27" ht="48" customHeight="1" thickBot="1">
+    <row r="61" customHeight="1" ht="48">
       <c r="A61" s="10" t="s">
         <v>96</v>
       </c>
@@ -6589,7 +7524,7 @@
       </c>
       <c r="AA61" s="8"/>
     </row>
-    <row r="62" spans="1:27" ht="32.25" customHeight="1" thickBot="1">
+    <row r="62" customHeight="1" ht="31">
       <c r="A62" s="10" t="s">
         <v>97</v>
       </c>
@@ -6631,7 +7566,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="47.25" customHeight="1">
+    <row r="63" customHeight="1" ht="46">
       <c r="A63" s="10" t="s">
         <v>98</v>
       </c>
@@ -6673,7 +7608,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15" customHeight="1" thickBot="1">
+    <row r="64" customHeight="1" ht="15">
       <c r="A64" s="14" t="s">
         <v>99</v>
       </c>
@@ -6703,24 +7638,22 @@
       <c r="Z64" s="14"/>
       <c r="AA64" s="14"/>
     </row>
-    <row r="65" ht="13.5" thickTop="1"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="Q64:AA64"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A64:M64"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
+  <mergeCells count="14">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="Q64:AA64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6737,19 +7670,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="109" customWidth="1"/>
     <col min="3" max="3" width="92.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75">
+    <row r="2" ht="12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6757,7 +7690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6768,7 +7701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -6779,7 +7712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -6790,7 +7723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -6801,7 +7734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -6812,7 +7745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -6823,7 +7756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -6834,7 +7767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -6845,7 +7778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -6856,7 +7789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -6867,7 +7800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -6878,7 +7811,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -6889,7 +7822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -6900,7 +7833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -6911,7 +7844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -6922,7 +7855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -6946,18 +7879,18 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="20.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1">
+    <row r="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1">
+    <row r="2" customHeight="1" ht="18">
       <c r="A2" s="23" t="s">
         <v>51</v>
       </c>
@@ -6989,7 +7922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1">
+    <row r="3">
       <c r="A3" s="25" t="s">
         <v>56</v>
       </c>
@@ -7003,13 +7936,13 @@
         <v>1472.3317</v>
       </c>
       <c r="E3" s="26">
-        <v>1505.7850000000001</v>
+        <v>1505.785</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="31">
-        <v>0.18997159999999999</v>
+        <v>0.1899716</v>
       </c>
       <c r="I3" s="31">
         <v>0.1198587</v>
@@ -7018,15 +7951,15 @@
         <v>1455.5426</v>
       </c>
       <c r="K3" s="31">
-        <v>1528.0050000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1">
+        <v>1528.005</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="26">
-        <v>0.18997159999999999</v>
+        <v>0.1899716</v>
       </c>
       <c r="C4" s="26">
         <v>0.1198587</v>
@@ -7035,25 +7968,25 @@
         <v>1455.5426</v>
       </c>
       <c r="E4" s="26">
-        <v>1528.0050000000001</v>
+        <v>1528.005</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H4" s="31">
-        <v>0.41263109999999997</v>
+        <v>0.4126311</v>
       </c>
       <c r="I4" s="31">
         <v>0.2931087</v>
       </c>
       <c r="J4" s="31">
-        <v>1169.0287000000001</v>
+        <v>1169.0287</v>
       </c>
       <c r="K4" s="31">
-        <v>1276.7829999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1">
+        <v>1276.783</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="25" t="s">
         <v>58</v>
       </c>
@@ -7064,7 +7997,7 @@
         <v>0.2879893</v>
       </c>
       <c r="D5" s="26">
-        <v>1177.4949999999999</v>
+        <v>1177.495</v>
       </c>
       <c r="E5" s="26">
         <v>1247.559</v>
@@ -7073,10 +8006,10 @@
         <v>63</v>
       </c>
       <c r="H5" s="31">
-        <v>0.46335609999999999</v>
+        <v>0.4633561</v>
       </c>
       <c r="I5" s="31">
-        <v>0.33631919999999998</v>
+        <v>0.3363192</v>
       </c>
       <c r="J5" s="31">
         <v>1097.5689</v>
@@ -7085,7 +8018,7 @@
         <v>1215.825</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1">
+    <row r="6">
       <c r="A6" s="25" t="s">
         <v>59</v>
       </c>
@@ -7093,36 +8026,36 @@
         <v>0.4470886</v>
       </c>
       <c r="C6" s="26">
-        <v>0.32995819999999998</v>
+        <v>0.3299582</v>
       </c>
       <c r="D6" s="26">
-        <v>1108.0885000000001</v>
+        <v>1108.0885</v>
       </c>
       <c r="E6" s="26">
-        <v>1188.7270000000001</v>
+        <v>1188.727</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="31">
-        <v>0.59203130000000004</v>
+        <v>0.5920313</v>
       </c>
       <c r="I6" s="31">
-        <v>0.45220320000000003</v>
+        <v>0.4522032</v>
       </c>
       <c r="J6" s="31">
-        <v>905.92449999999997</v>
+        <v>905.9245</v>
       </c>
       <c r="K6" s="31">
         <v>1056.607</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1">
+    <row r="7">
       <c r="A7" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="26">
-        <v>0.16948830000000001</v>
+        <v>0.1694883</v>
       </c>
       <c r="C7" s="26">
         <v>0.1105141</v>
@@ -7137,43 +8070,43 @@
         <v>65</v>
       </c>
       <c r="H7" s="31">
-        <v>0.59478640000000005</v>
+        <v>0.5947864</v>
       </c>
       <c r="I7" s="31">
-        <v>0.45259579999999999</v>
+        <v>0.4525958</v>
       </c>
       <c r="J7" s="31">
-        <v>905.27530000000002</v>
+        <v>905.2753</v>
       </c>
       <c r="K7" s="31">
-        <v>1066.3489999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.25" customHeight="1">
+        <v>1066.349</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="26">
-        <v>0.59478640000000005</v>
+        <v>0.5947864</v>
       </c>
       <c r="C8" s="26">
-        <v>0.45259579999999999</v>
+        <v>0.4525958</v>
       </c>
       <c r="D8" s="26">
-        <v>905.27530000000002</v>
+        <v>905.2753</v>
       </c>
       <c r="E8" s="26">
-        <v>1066.3489999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1">
+        <v>1066.349</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="20.25" customHeight="1">
+    <row r="10">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -7183,7 +8116,7 @@
       <c r="E10" s="20"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1">
+    <row r="11">
       <c r="A11" s="23" t="s">
         <v>51</v>
       </c>
@@ -7215,27 +8148,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1">
+    <row r="12">
       <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="26">
-        <v>0.20081930000000001</v>
+        <v>0.2008193</v>
       </c>
       <c r="C12" s="26">
-        <v>0.12941630000000001</v>
+        <v>0.1294163</v>
       </c>
       <c r="D12" s="26">
         <v>1620.106</v>
       </c>
       <c r="E12" s="26">
-        <v>1653.2860000000001</v>
+        <v>1653.286</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="H12" s="31">
-        <v>0.21146019999999999</v>
+        <v>0.2114602</v>
       </c>
       <c r="I12" s="31">
         <v>0.1296329</v>
@@ -7247,12 +8180,12 @@
         <v>1691.585</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1">
+    <row r="13">
       <c r="A13" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="26">
-        <v>0.21146019999999999</v>
+        <v>0.2114602</v>
       </c>
       <c r="C13" s="26">
         <v>0.1296329</v>
@@ -7267,83 +8200,83 @@
         <v>62</v>
       </c>
       <c r="H13" s="31">
-        <v>0.40932590000000002</v>
+        <v>0.4093259</v>
       </c>
       <c r="I13" s="31">
-        <v>0.27812340000000002</v>
+        <v>0.2781234</v>
       </c>
       <c r="J13" s="31">
-        <v>1343.3710000000001</v>
+        <v>1343.371</v>
       </c>
       <c r="K13" s="31">
-        <v>1449.0260000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="20.25" customHeight="1">
+        <v>1449.026</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="26">
-        <v>0.40210590000000002</v>
+        <v>0.4021059</v>
       </c>
       <c r="C14" s="26">
-        <v>0.27950540000000001</v>
+        <v>0.2795054</v>
       </c>
       <c r="D14" s="26">
         <v>1340.799</v>
       </c>
       <c r="E14" s="26">
-        <v>1409.4839999999999</v>
+        <v>1409.484</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>63</v>
       </c>
       <c r="H14" s="31">
-        <v>0.41248859999999998</v>
+        <v>0.4124886</v>
       </c>
       <c r="I14" s="31">
-        <v>0.27867579999999997</v>
+        <v>0.2786758</v>
       </c>
       <c r="J14" s="31">
-        <v>1342.3430000000001</v>
+        <v>1342.343</v>
       </c>
       <c r="K14" s="31">
         <v>1460.04</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.25" customHeight="1">
+    <row r="15">
       <c r="A15" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="26">
-        <v>0.40581299999999998</v>
+        <v>0.405813</v>
       </c>
       <c r="C15" s="26">
-        <v>0.28050429999999998</v>
+        <v>0.2805043</v>
       </c>
       <c r="D15" s="26">
         <v>1338.94</v>
       </c>
       <c r="E15" s="26">
-        <v>1419.1880000000001</v>
+        <v>1419.188</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>64</v>
       </c>
       <c r="H15" s="31">
-        <v>0.55473530000000004</v>
+        <v>0.5547353</v>
       </c>
       <c r="I15" s="31">
-        <v>0.40088689999999999</v>
+        <v>0.4008869</v>
       </c>
       <c r="J15" s="31">
         <v>1114.915</v>
       </c>
       <c r="K15" s="31">
-        <v>1263.4079999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1">
+        <v>1263.408</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="25" t="s">
         <v>60</v>
       </c>
@@ -7351,10 +8284,10 @@
         <v>0.2041336</v>
       </c>
       <c r="C16" s="26">
-        <v>0.12967110000000001</v>
+        <v>0.1296711</v>
       </c>
       <c r="D16" s="26">
-        <v>1619.6320000000001</v>
+        <v>1619.632</v>
       </c>
       <c r="E16" s="26">
         <v>1663.846</v>
@@ -7363,36 +8296,6067 @@
         <v>65</v>
       </c>
       <c r="H16" s="31">
-        <v>0.55634819999999996</v>
+        <v>0.5563482</v>
       </c>
       <c r="I16" s="31">
-        <v>0.40030919999999998</v>
+        <v>0.4003092</v>
       </c>
       <c r="J16" s="31">
         <v>1115.99</v>
       </c>
       <c r="K16" s="31">
-        <v>1274.6489999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" customHeight="1">
+        <v>1274.649</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="26">
-        <v>0.55634819999999996</v>
+        <v>0.5563482</v>
       </c>
       <c r="C17" s="26">
-        <v>0.40030919999999998</v>
+        <v>0.4003092</v>
       </c>
       <c r="D17" s="26">
         <v>1115.99</v>
       </c>
       <c r="E17" s="26">
-        <v>1274.6400000000001</v>
+        <v>1274.64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="Z56" activeCellId="0" sqref="Z56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.140625"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1" style="33"/>
+    <col min="2" max="2" width="5" customWidth="1" style="33"/>
+    <col min="3" max="3" width="13" customWidth="1" style="33"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1" style="33"/>
+    <col min="5" max="5" width="4.140625" customWidth="1" style="33"/>
+    <col min="6" max="6" width="7.140625" customWidth="1" style="33"/>
+    <col min="7" max="7" width="7.140625" customWidth="1" style="33"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1" style="33"/>
+    <col min="9" max="10" width="9.140625" style="33"/>
+    <col min="11" max="11" width="27.28515625" style="33" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" width="9.140625" style="33" bestFit="1"/>
+    <col min="13" max="20" width="9.140625" style="33"/>
+    <col min="21" max="21" width="27.28515625" style="33" customWidth="1" bestFit="1"/>
+    <col min="22" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" s="58">
+      <c r="A1" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="K1" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="61"/>
+      <c r="U1" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="61"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="33">
+        <v>3815</v>
+      </c>
+      <c r="C3" s="33">
+        <v>60.7</v>
+      </c>
+      <c r="D3" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="E3" s="33">
+        <v>40</v>
+      </c>
+      <c r="F3" s="33">
+        <v>50</v>
+      </c>
+      <c r="G3" s="33">
+        <v>71</v>
+      </c>
+      <c r="H3" s="33">
+        <v>80</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="33">
+        <v>1950</v>
+      </c>
+      <c r="M3" s="33">
+        <v>60.8</v>
+      </c>
+      <c r="N3" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="O3" s="33">
+        <v>40</v>
+      </c>
+      <c r="P3" s="33">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>72</v>
+      </c>
+      <c r="R3" s="33">
+        <v>80</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="33">
+        <v>1865</v>
+      </c>
+      <c r="W3" s="33">
+        <v>60.6</v>
+      </c>
+      <c r="X3" s="33">
+        <v>12.4</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>71</v>
+      </c>
+      <c r="AB3" s="33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3813</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="K4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="33">
+        <v>1950</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="U4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="33">
+        <v>1863</v>
+      </c>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="33">
+        <v>956</v>
+      </c>
+      <c r="C5" s="65">
+        <v>0.251</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="K5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="33">
+        <v>410</v>
+      </c>
+      <c r="M5" s="65">
+        <v>0.21</v>
+      </c>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="U5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="V5" s="33">
+        <v>546</v>
+      </c>
+      <c r="W5" s="65">
+        <v>0.29300000000000004</v>
+      </c>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="65">
+        <v>0.263</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="K6" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="33">
+        <v>526</v>
+      </c>
+      <c r="M6" s="65">
+        <v>0.27</v>
+      </c>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="U6" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="V6" s="33">
+        <v>475</v>
+      </c>
+      <c r="W6" s="65">
+        <v>0.255</v>
+      </c>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1224</v>
+      </c>
+      <c r="C7" s="65">
+        <v>0.321</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="K7" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="33">
+        <v>675</v>
+      </c>
+      <c r="M7" s="65">
+        <v>0.34600000000000003</v>
+      </c>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="U7" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7" s="33">
+        <v>549</v>
+      </c>
+      <c r="W7" s="65">
+        <v>0.295</v>
+      </c>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="33">
+        <v>318</v>
+      </c>
+      <c r="C8" s="65">
+        <v>8.3E-2</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="K8" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="33">
+        <v>173</v>
+      </c>
+      <c r="M8" s="65">
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="U8" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="33">
+        <v>145</v>
+      </c>
+      <c r="W8" s="65">
+        <v>7.8E-2</v>
+      </c>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="33">
+        <v>314</v>
+      </c>
+      <c r="C9" s="65">
+        <v>8.199999999999999E-2</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="K9" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="33">
+        <v>166</v>
+      </c>
+      <c r="M9" s="65">
+        <v>8.5E-2</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="U9" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="V9" s="33">
+        <v>148</v>
+      </c>
+      <c r="W9" s="65">
+        <v>7.9E-2</v>
+      </c>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="33">
+        <v>3815</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="K10" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="33">
+        <v>1950</v>
+      </c>
+      <c r="M10" s="63"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="U10" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="V10" s="33">
+        <v>1865</v>
+      </c>
+      <c r="W10" s="63"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1865</v>
+      </c>
+      <c r="C11" s="65">
+        <v>0.489</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="K11" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="33">
+        <v>0</v>
+      </c>
+      <c r="M11" s="65">
+        <v>0</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="U11" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="V11" s="33">
+        <v>1865</v>
+      </c>
+      <c r="W11" s="65">
+        <v>1</v>
+      </c>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="33">
+        <v>1950</v>
+      </c>
+      <c r="C12" s="65">
+        <v>0.511</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="K12" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="33">
+        <v>1950</v>
+      </c>
+      <c r="M12" s="65">
+        <v>1</v>
+      </c>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="U12" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="V12" s="33">
+        <v>0</v>
+      </c>
+      <c r="W12" s="65">
+        <v>0</v>
+      </c>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33">
+        <v>3815</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="K13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="33">
+        <v>1950</v>
+      </c>
+      <c r="M13" s="63"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="U13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="33">
+        <v>1865</v>
+      </c>
+      <c r="W13" s="63"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="33">
+        <v>1991</v>
+      </c>
+      <c r="C14" s="65">
+        <v>0.522</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="K14" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="33">
+        <v>997</v>
+      </c>
+      <c r="M14" s="65">
+        <v>0.511</v>
+      </c>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="U14" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="V14" s="33">
+        <v>994</v>
+      </c>
+      <c r="W14" s="65">
+        <v>0.533</v>
+      </c>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1008</v>
+      </c>
+      <c r="C15" s="65">
+        <v>0.264</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="K15" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="33">
+        <v>524</v>
+      </c>
+      <c r="M15" s="65">
+        <v>0.269</v>
+      </c>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="U15" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="V15" s="33">
+        <v>484</v>
+      </c>
+      <c r="W15" s="65">
+        <v>0.26</v>
+      </c>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="33">
+        <v>816</v>
+      </c>
+      <c r="C16" s="65">
+        <v>0.214</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="K16" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" s="33">
+        <v>429</v>
+      </c>
+      <c r="M16" s="65">
+        <v>0.22</v>
+      </c>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="U16" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="V16" s="33">
+        <v>387</v>
+      </c>
+      <c r="W16" s="65">
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="33">
+        <v>3812</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="K17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="33">
+        <v>1947</v>
+      </c>
+      <c r="M17" s="63"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="U17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" s="33">
+        <v>1865</v>
+      </c>
+      <c r="W17" s="63"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="33">
+        <v>931</v>
+      </c>
+      <c r="C18" s="65">
+        <v>0.244</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="K18" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="33">
+        <v>486</v>
+      </c>
+      <c r="M18" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="U18" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="V18" s="33">
+        <v>445</v>
+      </c>
+      <c r="W18" s="65">
+        <v>0.239</v>
+      </c>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="33">
+        <v>1271</v>
+      </c>
+      <c r="C19" s="65">
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="K19" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="33">
+        <v>643</v>
+      </c>
+      <c r="M19" s="65">
+        <v>0.33</v>
+      </c>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="U19" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="V19" s="33">
+        <v>628</v>
+      </c>
+      <c r="W19" s="65">
+        <v>0.337</v>
+      </c>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="33">
+        <v>909</v>
+      </c>
+      <c r="C20" s="65">
+        <v>0.23800000000000002</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="K20" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="33">
+        <v>483</v>
+      </c>
+      <c r="M20" s="65">
+        <v>0.24800000000000003</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="U20" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="V20" s="33">
+        <v>426</v>
+      </c>
+      <c r="W20" s="65">
+        <v>0.228</v>
+      </c>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="33">
+        <v>701</v>
+      </c>
+      <c r="C21" s="65">
+        <v>0.184</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="K21" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="33">
+        <v>335</v>
+      </c>
+      <c r="M21" s="65">
+        <v>0.172</v>
+      </c>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="U21" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="V21" s="33">
+        <v>366</v>
+      </c>
+      <c r="W21" s="65">
+        <v>0.196</v>
+      </c>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="33">
+        <v>3814</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="K22" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="33">
+        <v>1950</v>
+      </c>
+      <c r="M22" s="63"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="U22" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="V22" s="33">
+        <v>1864</v>
+      </c>
+      <c r="W22" s="63"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="33">
+        <v>285</v>
+      </c>
+      <c r="C23" s="65">
+        <v>7.5E-2</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="K23" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="33">
+        <v>134</v>
+      </c>
+      <c r="M23" s="65">
+        <v>6.9E-2</v>
+      </c>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="U23" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="V23" s="33">
+        <v>151</v>
+      </c>
+      <c r="W23" s="65">
+        <v>8.1E-2</v>
+      </c>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="33">
+        <v>2319</v>
+      </c>
+      <c r="C24" s="65">
+        <v>0.608</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="K24" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="33">
+        <v>1005</v>
+      </c>
+      <c r="M24" s="65">
+        <v>0.515</v>
+      </c>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="U24" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="V24" s="33">
+        <v>1314</v>
+      </c>
+      <c r="W24" s="65">
+        <v>0.705</v>
+      </c>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="33">
+        <v>1210</v>
+      </c>
+      <c r="C25" s="65">
+        <v>0.317</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="K25" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="33">
+        <v>811</v>
+      </c>
+      <c r="M25" s="65">
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="U25" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="V25" s="33">
+        <v>399</v>
+      </c>
+      <c r="W25" s="65">
+        <v>0.214</v>
+      </c>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="33">
+        <v>3781</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="K26" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="33">
+        <v>1928</v>
+      </c>
+      <c r="M26" s="63"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="U26" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" s="33">
+        <v>1853</v>
+      </c>
+      <c r="W26" s="63"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="33">
+        <v>3166</v>
+      </c>
+      <c r="C27" s="65">
+        <v>0.8370000000000001</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="K27" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="33">
+        <v>1598</v>
+      </c>
+      <c r="M27" s="65">
+        <v>0.8290000000000001</v>
+      </c>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="U27" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="V27" s="33">
+        <v>1568</v>
+      </c>
+      <c r="W27" s="65">
+        <v>0.846</v>
+      </c>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="33">
+        <v>184</v>
+      </c>
+      <c r="C28" s="65">
+        <v>4.9E-2</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="K28" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="33">
+        <v>98</v>
+      </c>
+      <c r="M28" s="65">
+        <v>5.1E-2</v>
+      </c>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="U28" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="V28" s="33">
+        <v>86</v>
+      </c>
+      <c r="W28" s="65">
+        <v>4.6E-2</v>
+      </c>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="33">
+        <v>431</v>
+      </c>
+      <c r="C29" s="65">
+        <v>0.114</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="K29" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="L29" s="33">
+        <v>232</v>
+      </c>
+      <c r="M29" s="65">
+        <v>0.12</v>
+      </c>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="U29" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="V29" s="33">
+        <v>199</v>
+      </c>
+      <c r="W29" s="65">
+        <v>0.107</v>
+      </c>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="33">
+        <v>3812</v>
+      </c>
+      <c r="C30" s="63"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="K30" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="33">
+        <v>1950</v>
+      </c>
+      <c r="M30" s="63"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="U30" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="V30" s="33">
+        <v>1862</v>
+      </c>
+      <c r="W30" s="63"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="33">
+        <v>3189</v>
+      </c>
+      <c r="C31" s="65">
+        <v>0.8370000000000001</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="K31" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="33">
+        <v>1638</v>
+      </c>
+      <c r="M31" s="65">
+        <v>0.84</v>
+      </c>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="U31" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="V31" s="33">
+        <v>1551</v>
+      </c>
+      <c r="W31" s="65">
+        <v>0.833</v>
+      </c>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="33">
+        <v>623</v>
+      </c>
+      <c r="C32" s="65">
+        <v>0.163</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="K32" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L32" s="33">
+        <v>312</v>
+      </c>
+      <c r="M32" s="65">
+        <v>0.16</v>
+      </c>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="U32" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="V32" s="33">
+        <v>311</v>
+      </c>
+      <c r="W32" s="65">
+        <v>0.167</v>
+      </c>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="33">
+        <v>3781</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="K33" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="33">
+        <v>1927</v>
+      </c>
+      <c r="M33" s="63"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="U33" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="V33" s="33">
+        <v>1854</v>
+      </c>
+      <c r="W33" s="63"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="33">
+        <v>2776</v>
+      </c>
+      <c r="C34" s="65">
+        <v>0.7340000000000001</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="K34" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="L34" s="33">
+        <v>1390</v>
+      </c>
+      <c r="M34" s="65">
+        <v>0.721</v>
+      </c>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="U34" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="V34" s="33">
+        <v>1386</v>
+      </c>
+      <c r="W34" s="65">
+        <v>0.748</v>
+      </c>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="33">
+        <v>1005</v>
+      </c>
+      <c r="C35" s="65">
+        <v>0.266</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="K35" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" s="33">
+        <v>537</v>
+      </c>
+      <c r="M35" s="65">
+        <v>0.27899999999999997</v>
+      </c>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="U35" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="V35" s="33">
+        <v>468</v>
+      </c>
+      <c r="W35" s="65">
+        <v>0.252</v>
+      </c>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="33">
+        <v>3569</v>
+      </c>
+      <c r="C36" s="63"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="K36" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="33">
+        <v>1814</v>
+      </c>
+      <c r="M36" s="63"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="U36" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="V36" s="33">
+        <v>1755</v>
+      </c>
+      <c r="W36" s="63"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="33">
+        <v>1885</v>
+      </c>
+      <c r="C37" s="65">
+        <v>0.528</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="K37" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="L37" s="33">
+        <v>907</v>
+      </c>
+      <c r="M37" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="U37" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="V37" s="33">
+        <v>978</v>
+      </c>
+      <c r="W37" s="65">
+        <v>0.557</v>
+      </c>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="33">
+        <v>552</v>
+      </c>
+      <c r="C38" s="65">
+        <v>0.155</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="K38" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="L38" s="33">
+        <v>289</v>
+      </c>
+      <c r="M38" s="65">
+        <v>0.159</v>
+      </c>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="U38" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="V38" s="33">
+        <v>263</v>
+      </c>
+      <c r="W38" s="65">
+        <v>0.15</v>
+      </c>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="33">
+        <v>1132</v>
+      </c>
+      <c r="C39" s="65">
+        <v>0.317</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="K39" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="L39" s="33">
+        <v>618</v>
+      </c>
+      <c r="M39" s="65">
+        <v>0.341</v>
+      </c>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="U39" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="V39" s="33">
+        <v>514</v>
+      </c>
+      <c r="W39" s="65">
+        <v>0.29300000000000004</v>
+      </c>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="33">
+        <v>3807</v>
+      </c>
+      <c r="C40" s="63"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="K40" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="33">
+        <v>1947</v>
+      </c>
+      <c r="M40" s="63"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="U40" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="V40" s="33">
+        <v>1860</v>
+      </c>
+      <c r="W40" s="63"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="33">
+        <v>3434</v>
+      </c>
+      <c r="C41" s="65">
+        <v>0.902</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="K41" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="L41" s="33">
+        <v>1769</v>
+      </c>
+      <c r="M41" s="65">
+        <v>0.909</v>
+      </c>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="U41" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="V41" s="33">
+        <v>1665</v>
+      </c>
+      <c r="W41" s="65">
+        <v>0.895</v>
+      </c>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="33">
+        <v>373</v>
+      </c>
+      <c r="C42" s="65">
+        <v>9.8E-2</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="K42" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L42" s="33">
+        <v>178</v>
+      </c>
+      <c r="M42" s="65">
+        <v>9.1E-2</v>
+      </c>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="U42" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="V42" s="33">
+        <v>195</v>
+      </c>
+      <c r="W42" s="65">
+        <v>0.105</v>
+      </c>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="33">
+        <v>3815</v>
+      </c>
+      <c r="C43" s="63"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="K43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="33">
+        <v>1950</v>
+      </c>
+      <c r="M43" s="63"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="U43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="V43" s="33">
+        <v>1865</v>
+      </c>
+      <c r="W43" s="63"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="33">
+        <v>3457</v>
+      </c>
+      <c r="C44" s="65">
+        <v>0.9059999999999999</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="K44" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="L44" s="33">
+        <v>1798</v>
+      </c>
+      <c r="M44" s="65">
+        <v>0.922</v>
+      </c>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="U44" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="V44" s="33">
+        <v>1659</v>
+      </c>
+      <c r="W44" s="65">
+        <v>0.89</v>
+      </c>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="33">
+        <v>358</v>
+      </c>
+      <c r="C45" s="65">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="K45" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L45" s="33">
+        <v>152</v>
+      </c>
+      <c r="M45" s="65">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="U45" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="V45" s="33">
+        <v>206</v>
+      </c>
+      <c r="W45" s="65">
+        <v>0.11</v>
+      </c>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="33">
+        <v>3357</v>
+      </c>
+      <c r="C46" s="33">
+        <v>3.32</v>
+      </c>
+      <c r="D46" s="33">
+        <v>4.46</v>
+      </c>
+      <c r="E46" s="33">
+        <v>0</v>
+      </c>
+      <c r="F46" s="33">
+        <v>0</v>
+      </c>
+      <c r="G46" s="33">
+        <v>5</v>
+      </c>
+      <c r="H46" s="33">
+        <v>27</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="33">
+        <v>1706</v>
+      </c>
+      <c r="M46" s="33">
+        <v>3.91</v>
+      </c>
+      <c r="N46" s="33">
+        <v>4.75</v>
+      </c>
+      <c r="O46" s="33">
+        <v>0</v>
+      </c>
+      <c r="P46" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="33">
+        <v>5</v>
+      </c>
+      <c r="R46" s="33">
+        <v>27</v>
+      </c>
+      <c r="U46" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="V46" s="33">
+        <v>1651</v>
+      </c>
+      <c r="W46" s="33">
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="X46" s="33">
+        <v>4.04</v>
+      </c>
+      <c r="Y46" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="33">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="33">
+        <v>3812</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="K47" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="33">
+        <v>1948</v>
+      </c>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="U47" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="V47" s="33">
+        <v>1864</v>
+      </c>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="33">
+        <v>1983</v>
+      </c>
+      <c r="C48" s="65">
+        <v>0.52</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="K48" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L48" s="33">
+        <v>974</v>
+      </c>
+      <c r="M48" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="U48" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="V48" s="33">
+        <v>1009</v>
+      </c>
+      <c r="W48" s="65">
+        <v>0.541</v>
+      </c>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="33">
+        <v>1829</v>
+      </c>
+      <c r="C49" s="65">
+        <v>0.48</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="K49" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="L49" s="33">
+        <v>974</v>
+      </c>
+      <c r="M49" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="U49" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="V49" s="33">
+        <v>855</v>
+      </c>
+      <c r="W49" s="65">
+        <v>0.459</v>
+      </c>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="33">
+        <v>3144</v>
+      </c>
+      <c r="C50" s="63"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="K50" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="33">
+        <v>1668</v>
+      </c>
+      <c r="M50" s="63"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="U50" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="V50" s="33">
+        <v>1476</v>
+      </c>
+      <c r="W50" s="63"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="33">
+        <v>1525</v>
+      </c>
+      <c r="C51" s="65">
+        <v>0.485</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="K51" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L51" s="33">
+        <v>834</v>
+      </c>
+      <c r="M51" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="U51" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="V51" s="33">
+        <v>691</v>
+      </c>
+      <c r="W51" s="65">
+        <v>0.46799999999999997</v>
+      </c>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="33">
+        <v>1619</v>
+      </c>
+      <c r="C52" s="65">
+        <v>0.515</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="K52" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="L52" s="33">
+        <v>834</v>
+      </c>
+      <c r="M52" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="U52" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="V52" s="33">
+        <v>785</v>
+      </c>
+      <c r="W52" s="65">
+        <v>0.532</v>
+      </c>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="33">
+        <v>3813</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="K53" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="33">
+        <v>1949</v>
+      </c>
+      <c r="M53" s="63"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="U53" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="V53" s="33">
+        <v>1864</v>
+      </c>
+      <c r="W53" s="63"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="34"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="33">
+        <v>3057</v>
+      </c>
+      <c r="C54" s="65">
+        <v>0.802</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="K54" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L54" s="33">
+        <v>1570</v>
+      </c>
+      <c r="M54" s="65">
+        <v>0.8059999999999999</v>
+      </c>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="U54" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="V54" s="33">
+        <v>1487</v>
+      </c>
+      <c r="W54" s="65">
+        <v>0.798</v>
+      </c>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="33">
+        <v>675</v>
+      </c>
+      <c r="C55" s="65">
+        <v>0.177</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="K55" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="L55" s="33">
+        <v>345</v>
+      </c>
+      <c r="M55" s="65">
+        <v>0.177</v>
+      </c>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="U55" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="V55" s="33">
+        <v>330</v>
+      </c>
+      <c r="W55" s="65">
+        <v>0.177</v>
+      </c>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="33">
+        <v>81</v>
+      </c>
+      <c r="C56" s="65">
+        <v>2.1E-2</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="K56" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="L56" s="33">
+        <v>34</v>
+      </c>
+      <c r="M56" s="65">
+        <v>1.7E-2</v>
+      </c>
+      <c r="N56" s="63">
+        <f>SUM(M55:M56)</f>
+        <v>0.194</v>
+      </c>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="U56" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="V56" s="33">
+        <v>47</v>
+      </c>
+      <c r="W56" s="65">
+        <v>2.5E-2</v>
+      </c>
+      <c r="X56" s="63">
+        <f>SUM(W55:W56)</f>
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="33">
+        <v>3811</v>
+      </c>
+      <c r="C57" s="63"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="K57" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="33">
+        <v>1949</v>
+      </c>
+      <c r="M57" s="63"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="U57" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="V57" s="33">
+        <v>1862</v>
+      </c>
+      <c r="W57" s="63"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="33">
+        <v>1854</v>
+      </c>
+      <c r="C58" s="65">
+        <v>0.48600000000000004</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="K58" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="L58" s="33">
+        <v>1141</v>
+      </c>
+      <c r="M58" s="65">
+        <v>0.585</v>
+      </c>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="U58" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="V58" s="33">
+        <v>713</v>
+      </c>
+      <c r="W58" s="65">
+        <v>0.383</v>
+      </c>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="33">
+        <v>1225</v>
+      </c>
+      <c r="C59" s="65">
+        <v>0.321</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="K59" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="L59" s="33">
+        <v>485</v>
+      </c>
+      <c r="M59" s="65">
+        <v>0.249</v>
+      </c>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="U59" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="V59" s="33">
+        <v>740</v>
+      </c>
+      <c r="W59" s="65">
+        <v>0.397</v>
+      </c>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="34"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="33">
+        <v>732</v>
+      </c>
+      <c r="C60" s="65">
+        <v>0.192</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="K60" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="L60" s="33">
+        <v>323</v>
+      </c>
+      <c r="M60" s="65">
+        <v>0.166</v>
+      </c>
+      <c r="N60" s="63">
+        <f>SUM(M59:M60)</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="U60" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="V60" s="33">
+        <v>409</v>
+      </c>
+      <c r="W60" s="65">
+        <v>0.22</v>
+      </c>
+      <c r="X60" s="63">
+        <f>SUM(W59:W60)</f>
+        <v>0.617</v>
+      </c>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="33">
+        <v>3728</v>
+      </c>
+      <c r="C61" s="33">
+        <v>28.5</v>
+      </c>
+      <c r="D61" s="33">
+        <v>5.91</v>
+      </c>
+      <c r="E61" s="33">
+        <v>12.1</v>
+      </c>
+      <c r="F61" s="33">
+        <v>24.4</v>
+      </c>
+      <c r="G61" s="33">
+        <v>31.5</v>
+      </c>
+      <c r="H61" s="33">
+        <v>63.7</v>
+      </c>
+      <c r="K61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="33">
+        <v>1892</v>
+      </c>
+      <c r="M61" s="33">
+        <v>28.5</v>
+      </c>
+      <c r="N61" s="33">
+        <v>6.51</v>
+      </c>
+      <c r="O61" s="33">
+        <v>12.1</v>
+      </c>
+      <c r="P61" s="33">
+        <v>23.9</v>
+      </c>
+      <c r="Q61" s="33">
+        <v>32</v>
+      </c>
+      <c r="R61" s="33">
+        <v>63.7</v>
+      </c>
+      <c r="U61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="33">
+        <v>1836</v>
+      </c>
+      <c r="W61" s="33">
+        <v>28.4</v>
+      </c>
+      <c r="X61" s="33">
+        <v>5.24</v>
+      </c>
+      <c r="Y61" s="33">
+        <v>14.2</v>
+      </c>
+      <c r="Z61" s="33">
+        <v>25.1</v>
+      </c>
+      <c r="AA61" s="33">
+        <v>30.9</v>
+      </c>
+      <c r="AB61" s="33">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="33">
+        <v>3808</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="K62" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="33">
+        <v>1949</v>
+      </c>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="U62" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="V62" s="33">
+        <v>1859</v>
+      </c>
+      <c r="W62" s="34"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="34"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="33">
+        <v>2272</v>
+      </c>
+      <c r="C63" s="65">
+        <v>0.5970000000000001</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="K63" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="L63" s="33">
+        <v>1043</v>
+      </c>
+      <c r="M63" s="65">
+        <v>0.535</v>
+      </c>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="U63" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="V63" s="33">
+        <v>1229</v>
+      </c>
+      <c r="W63" s="65">
+        <v>0.6609999999999999</v>
+      </c>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="34"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="33">
+        <v>1072</v>
+      </c>
+      <c r="C64" s="65">
+        <v>0.282</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="K64" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="L64" s="33">
+        <v>622</v>
+      </c>
+      <c r="M64" s="65">
+        <v>0.319</v>
+      </c>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="U64" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="V64" s="33">
+        <v>450</v>
+      </c>
+      <c r="W64" s="65">
+        <v>0.242</v>
+      </c>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="34"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="33">
+        <v>464</v>
+      </c>
+      <c r="C65" s="65">
+        <v>0.122</v>
+      </c>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="K65" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="L65" s="33">
+        <v>284</v>
+      </c>
+      <c r="M65" s="65">
+        <v>0.146</v>
+      </c>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="U65" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="V65" s="33">
+        <v>180</v>
+      </c>
+      <c r="W65" s="65">
+        <v>9.699999999999999E-2</v>
+      </c>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="33">
+        <v>3815</v>
+      </c>
+      <c r="C66" s="63"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="K66" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L66" s="33">
+        <v>1950</v>
+      </c>
+      <c r="M66" s="63"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="U66" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="V66" s="33">
+        <v>1865</v>
+      </c>
+      <c r="W66" s="63"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="33">
+        <v>3150</v>
+      </c>
+      <c r="C67" s="65">
+        <v>0.826</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="K67" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="L67" s="33">
+        <v>1656</v>
+      </c>
+      <c r="M67" s="65">
+        <v>0.8490000000000001</v>
+      </c>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="U67" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="V67" s="33">
+        <v>1494</v>
+      </c>
+      <c r="W67" s="65">
+        <v>0.8009999999999999</v>
+      </c>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="33">
+        <v>665</v>
+      </c>
+      <c r="C68" s="65">
+        <v>0.174</v>
+      </c>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="K68" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L68" s="33">
+        <v>294</v>
+      </c>
+      <c r="M68" s="65">
+        <v>0.151</v>
+      </c>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="U68" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="V68" s="33">
+        <v>371</v>
+      </c>
+      <c r="W68" s="65">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="U1:AB1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80" topLeftCell="A16">
+      <selection activeCell="O27" activeCellId="0" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" customFormat="1" s="134">
+      <c r="A1" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="137"/>
+      <c r="N1" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="140"/>
+    </row>
+    <row r="2" customHeight="1" ht="49">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="N2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+    </row>
+    <row r="3" customHeight="1" ht="24">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+    </row>
+    <row r="4" ht="16">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="45">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="N5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" ht="16">
+      <c r="A6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="N6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" ht="16">
+      <c r="A7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2.75</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.19</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3.38</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3.29</v>
+      </c>
+      <c r="I7" s="9">
+        <v>8E-3</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3.29</v>
+      </c>
+      <c r="K7" s="9">
+        <v>8E-3</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="8">
+        <v>2.08</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="S7" s="8">
+        <v>1.97</v>
+      </c>
+      <c r="T7" s="9">
+        <v>6E-3</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" ht="16">
+      <c r="A8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4.26</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2.62</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4.06</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3.41</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5E-3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>3.47</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5E-3</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="8">
+        <v>3.72</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>2.17</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="S8" s="8">
+        <v>3.04</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="8">
+        <v>2.05</v>
+      </c>
+      <c r="V8" s="9">
+        <v>8E-3</v>
+      </c>
+      <c r="W8" s="8">
+        <v>2.06</v>
+      </c>
+      <c r="X8" s="9">
+        <v>8E-3</v>
+      </c>
+    </row>
+    <row r="9" ht="31">
+      <c r="A9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5.78</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.97</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5.44</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="I9" s="9">
+        <v>6E-3</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5E-3</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="8">
+        <v>4.1</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>2.22</v>
+      </c>
+      <c r="R9" s="9">
+        <v>7E-3</v>
+      </c>
+      <c r="S9" s="8">
+        <v>2.58</v>
+      </c>
+      <c r="T9" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1.54</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1.53</v>
+      </c>
+      <c r="X9" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" ht="31">
+      <c r="A10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5.73</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3.63</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5.28</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4.27</v>
+      </c>
+      <c r="I10" s="9">
+        <v>3E-3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>4.29</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3E-3</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="8">
+        <v>5.26</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>2.73</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="8">
+        <v>3.45</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="8">
+        <v>2.2</v>
+      </c>
+      <c r="V10" s="9">
+        <v>2.1E-2</v>
+      </c>
+      <c r="W10" s="8">
+        <v>2.19</v>
+      </c>
+      <c r="X10" s="9">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="11" ht="31">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="N11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" ht="45">
+      <c r="A12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="N12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" ht="31">
+      <c r="A13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.1E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3E-3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3E-3</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="P13" s="9">
+        <v>4.9E-2</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" ht="45">
+      <c r="A14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1.12</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="I14" s="8">
+        <v>7.3E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="K14" s="8">
+        <v>5.2E-2</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" ht="31">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="N15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" ht="45">
+      <c r="A16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="N16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17" ht="60">
+      <c r="A17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1.09</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="S17" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="U17" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" ht="31">
+      <c r="A18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="W18" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" ht="75">
+      <c r="A19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6.8E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="G19" s="9">
+        <v>3.4E-2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="S19" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="U19" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="W19" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" ht="31">
+      <c r="A20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="N20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" ht="31">
+      <c r="A21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="N21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" ht="31">
+      <c r="A22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1.23</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2.42</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5.6E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1.78</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3.52</v>
+      </c>
+      <c r="I22" s="9">
+        <v>3.3E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>3.74</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2.8E-2</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="P22" s="9">
+        <v>7E-3</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="R22" s="9">
+        <v>1E-2</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="T22" s="9">
+        <v>1.5E-2</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="V22" s="9">
+        <v>2E-2</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="X22" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="23" ht="45">
+      <c r="A23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2.77</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>3.29</v>
+      </c>
+      <c r="I23" s="9">
+        <v>4.1E-2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>3.56</v>
+      </c>
+      <c r="K23" s="9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="P23" s="9">
+        <v>5E-2</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="T23" s="9">
+        <v>5E-3</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="V23" s="9">
+        <v>1.3E-2</v>
+      </c>
+      <c r="W23" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="X23" s="9">
+        <v>1.1E-2</v>
+      </c>
+    </row>
+    <row r="24" ht="45">
+      <c r="A24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="N24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+    </row>
+    <row r="25" ht="16">
+      <c r="A25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="N25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="8"/>
+    </row>
+    <row r="26" ht="16">
+      <c r="A26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8">
+        <v>2.81</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8">
+        <v>2.55</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="8">
+        <v>2.59</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8">
+        <v>1.93</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8">
+        <v>1.85</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="8">
+        <v>1.83</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="31">
+      <c r="A27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="N27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28" ht="16">
+      <c r="A28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="N28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" s="8"/>
+    </row>
+    <row r="29" ht="16">
+      <c r="A29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8">
+        <v>1.84</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8">
+        <v>2.05</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="8">
+        <v>2.04</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="31">
+      <c r="A30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="N30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+    </row>
+    <row r="31" ht="16">
+      <c r="A31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="N31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X31" s="8"/>
+    </row>
+    <row r="32" ht="16">
+      <c r="A32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
+        <v>2.84</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8">
+        <v>2.79</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="8">
+        <v>2.81</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8">
+        <v>1.44</v>
+      </c>
+      <c r="R32" s="9">
+        <v>2.8E-2</v>
+      </c>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8">
+        <v>1.67</v>
+      </c>
+      <c r="V32" s="9">
+        <v>6E-3</v>
+      </c>
+      <c r="W32" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="X32" s="9">
+        <v>4E-3</v>
+      </c>
+    </row>
+    <row r="33" ht="31">
+      <c r="A33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
+        <v>1.53</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8">
+        <v>2.06</v>
+      </c>
+      <c r="V33" s="8">
+        <v>7.3E-2</v>
+      </c>
+      <c r="W33" s="8">
+        <v>2.09</v>
+      </c>
+      <c r="X33" s="8">
+        <v>6.9E-2</v>
+      </c>
+    </row>
+    <row r="34" ht="31">
+      <c r="A34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="N34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+    </row>
+    <row r="35" ht="31">
+      <c r="A35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="N35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" s="8"/>
+    </row>
+    <row r="36" ht="31">
+      <c r="A36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
+        <v>1.33</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="I36" s="9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J36" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="K36" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="R36" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8">
+        <v>1.27</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="W36" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" ht="45">
+      <c r="A37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
+        <v>1.98</v>
+      </c>
+      <c r="E37" s="9">
+        <v>3E-3</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8">
+        <v>1.85</v>
+      </c>
+      <c r="I37" s="9">
+        <v>2.5E-2</v>
+      </c>
+      <c r="J37" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="K37" s="9">
+        <v>2E-2</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8">
+        <v>2.07</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8">
+        <v>1.83</v>
+      </c>
+      <c r="V37" s="9">
+        <v>1.3E-2</v>
+      </c>
+      <c r="W37" s="8">
+        <v>1.84</v>
+      </c>
+      <c r="X37" s="9">
+        <v>1.3E-2</v>
+      </c>
+    </row>
+    <row r="38" ht="16">
+      <c r="A38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="8">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="W38" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" ht="31">
+      <c r="A39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="N39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+    </row>
+    <row r="40" ht="31">
+      <c r="A40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="N40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X40" s="8"/>
+    </row>
+    <row r="41" ht="31">
+      <c r="A41" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8">
+        <v>2.75</v>
+      </c>
+      <c r="G41" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="H41" s="8">
+        <v>2.71</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1E-2</v>
+      </c>
+      <c r="J41" s="8">
+        <v>2.76</v>
+      </c>
+      <c r="K41" s="9">
+        <v>9E-3</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8">
+        <v>1.91</v>
+      </c>
+      <c r="T41" s="9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="U41" s="8">
+        <v>2.43</v>
+      </c>
+      <c r="V41" s="9">
+        <v>2E-2</v>
+      </c>
+      <c r="W41" s="8">
+        <v>2.47</v>
+      </c>
+      <c r="X41" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="42" ht="45">
+      <c r="A42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="T42" s="9">
+        <v>3.3E-2</v>
+      </c>
+      <c r="U42" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="V42" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="W42" s="8">
+        <v>1.61</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" ht="45">
+      <c r="A43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="N43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+    </row>
+    <row r="44" ht="31">
+      <c r="A44" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="8"/>
+      <c r="N44" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X44" s="8"/>
+    </row>
+    <row r="45" ht="31">
+      <c r="A45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="T45" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="U45" s="8">
+        <v>1.73</v>
+      </c>
+      <c r="V45" s="8">
+        <v>8.7E-2</v>
+      </c>
+      <c r="W45" s="8">
+        <v>1.72</v>
+      </c>
+      <c r="X45" s="8">
+        <v>9.2E-2</v>
+      </c>
+    </row>
+    <row r="46" ht="16">
+      <c r="A46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="N46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+    </row>
+    <row r="47" ht="16">
+      <c r="A47" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="8"/>
+      <c r="N47" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X47" s="8"/>
+    </row>
+    <row r="48" ht="16">
+      <c r="A48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H48" s="8">
+        <v>1.47</v>
+      </c>
+      <c r="I48" s="8">
+        <v>8.5E-2</v>
+      </c>
+      <c r="J48" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="K48" s="8">
+        <v>6.5E-2</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8">
+        <v>1.44</v>
+      </c>
+      <c r="T48" s="8">
+        <v>5.2E-2</v>
+      </c>
+      <c r="U48" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="V48" s="8">
+        <v>7.1E-2</v>
+      </c>
+      <c r="W48" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="X48" s="8">
+        <v>7.1E-2</v>
+      </c>
+    </row>
+    <row r="49" ht="45">
+      <c r="A49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="N49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+    </row>
+    <row r="50" ht="60">
+      <c r="A50" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="N50" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" ht="75">
+      <c r="A51" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H51" s="8">
+        <v>1.22</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J51" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="T51" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="U51" s="8">
+        <v>1.27</v>
+      </c>
+      <c r="V51" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="W51" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="X51" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" ht="60">
+      <c r="A52" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8">
+        <v>1.29</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H52" s="8">
+        <v>1.22</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J52" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="V52" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="W52" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="X52" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" ht="45">
+      <c r="A53" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="N53" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+    </row>
+    <row r="54" ht="16">
+      <c r="A54" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="N54" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X54" s="8"/>
+    </row>
+    <row r="55" ht="16">
+      <c r="A55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="T55" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="V55" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="W55" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="X55" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="56" ht="45">
+      <c r="A56" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="N56" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+    </row>
+    <row r="57" ht="16">
+      <c r="A57" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="N57" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X57" s="8"/>
+    </row>
+    <row r="58" ht="16">
+      <c r="A58" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="G58" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="H58" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J58" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="K58" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="T58" s="8">
+        <v>6.1E-2</v>
+      </c>
+      <c r="U58" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="V58" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="W58" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="X58" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="59" ht="31">
+      <c r="A59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="H59" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="I59" s="9">
+        <v>8E-3</v>
+      </c>
+      <c r="J59" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="K59" s="9">
+        <v>5E-3</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="T59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U59" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="V59" s="9">
+        <v>7E-3</v>
+      </c>
+      <c r="W59" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="X59" s="9">
+        <v>7E-3</v>
+      </c>
+    </row>
+    <row r="60" ht="45">
+      <c r="A60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="N60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+    </row>
+    <row r="61" ht="45">
+      <c r="A61" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="8"/>
+      <c r="N61" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X61" s="8"/>
+    </row>
+    <row r="62" ht="31">
+      <c r="A62" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="K62" s="9">
+        <v>3.6E-2</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="X62" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="63" ht="45">
+      <c r="A63" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="K63" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="X63" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="N1:X1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A64:M64"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>